--- a/finetuning/it_datasets/qa_dataset/qa_it_zarzis_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_zarzis_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,14 +672,65 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Restaurant El Bibane located at Plage sonia zarzis, 4170, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-16:00, 19:00-23:00. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at  or call them at 99 242 403.</t>
+          <t>Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find Restaurant El Bibane, a popular destination for restaurant lovers with excellent ratings?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis and admire the bustling maritime activities (33.49216, 11.11959).
+Mid-Morning: Visit the Musée de Zarzis to delve into the region's rich history and culture.
+Midday: Savor delicious local cuisine at Restaurant Amin, renowned for its seafood (48.9137136, 2.4026955).
+Afternoon: Relax and sunbathe at Plage Souihel Zarzis, enjoying its serene ambiance (33.50398, 11.11215).
+Evening: Take a guided tour of the Salon de thé Le Patio, admiring its architectural beauty and sipping on flavorful tea (33.5298945, 11.0882724).
+Night: Experience cultural immersion at the musée ziane zarzis, showcasing the region's heritage and traditions (33.4992942°, 11.1081284°).</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Hannibal is a cafe located in Zarzis, Tunisia. It is a popular spot for locals and tourists alike, offering a wide variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its cozy atmosphere.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -780,12 +836,65 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Pizza Bab Elhara located at G436+R9Q Pizza Bab Elhara, Zarzis. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-22:00, but closed on lundi. To get there, use these GPS coordinates: 31.446514, 31.68038. For more details, visit their website at https://www.google.com/maps/place/Pizza+Bab+Elhara/data=!4m7!3m6!1s0x13aaef092ba918f3:0x4803d2318bdeb218!8m2!3d33.5045977!4d11.1109831!16s%2Fg%2F1q69x7dp7!19sChIJ8xipKwnvqhMRGLLeizHSA0g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 204 003.</t>
+          <t>Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you indulge in top-rated Pizzeria cuisine with a must-visit rating of 4.3?</t>
+          <t>Day Plan:
+Morning: Start the day by visiting the Musée de la Mémoire de la Mer et de l'Homme to learn about the maritime history and heritage of Zarzis.
+Mid-Morning: Head over to Port Zarzis for picturesque waterfront views and indulge in some boating or recreational activities.
+Midday: Satisfy your taste buds with a delicious seafood meal at Restaurant Amin, which boasts a perfect 5.0 rating.
+Afternoon: Explore the enchanting Plage Souihel Zarzis, where you can unwind and relax in its serene atmosphere.
+Evening: Immerse yourself in the local culinary scene by trying out Pizza Bab Elhara, a pizzeria famous for its vast selection of pizzas and inviting ambiance.
+Night: Conclude the day with a visit to Cafee Charchara, known for its friendly staff and delightful coffee selection.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafee Charchara is a café located in Zarzis, Tunisia. It offers a variety of coffee drinks, as well as other beverages and snacks. The café is open from 5:30am to 1:30am, and is closed on Sundays. Cafee Charchara has a rating of 4.6 out of 5 stars on Google, and is known for its friendly staff and good coffee. It is located at the following coordinates: (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -895,14 +1004,65 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a quick bite, try CHICKEN STREET located at Av. Mohamed V. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from, including Restaurant de volaille, Restaurant specialise dans les ailes de poulet, Restaurant familial, Poulet frit a emporter, Restaurant halal, Restaurant de hamburgers, Livraison de repas a domicile, and Restaurant.
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-00:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at http://www.chickenstreet.fr/?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=mybusiness-website or call them at 50 059 006.</t>
+          <t>CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in Zarzis offers quick bites and specializes in poultry, making it an ideal destination for Restauration rapide enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the Port of Zarzis (long: 11.11959, lat: 33.49216)
+Mid-Morning: Trying local cuisine at Top Chef Restaurant (G427+2Q5)
+Midday: Relaxing with a cup of coffee at Marina Cafe
+Afternoon: Enjoying scenic views at Plage Souihel Zarzis (33.50398, 11.11215)
+Evening: Experiencing cultural immersion at the Musee de Zarzis
+Night: Dining at Restaurant Amin (48.9137136, 2.4026955)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Top Chef Restaurant is a restaurant located in Zarzis, Tunisia, it is specifically situated at G427+2Q5. The restaurant is open from Monday to Saturday from 11:30 am to 9:30 pm, but it is closed on Sundays. With a 5.0 rating, Top Chef Restaurant is a great place to enjoy a meal.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Marina Cafe is a well-established coffee shop located in the city of Zarzis, Tunisia. Situated on the waterfront with beautiful surroundings, the café offers a scenic view of the marina. It is a very popular local hangout spot and also among tourists, owing to its friendly staff and delicious food. The café has an extensive menu with a wide range of options, including pizzas, crêpes, and other snacks. They also have a selection of drinks, including coffee, tea, and juices. Marina Cafe is opened every day from 6 AM to 1 AM, except for Sundays.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1008,14 +1168,65 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in zarzis and seeking a leisurely experience, El Margoum is a fantastic option, situated on Av. Mohamed V in G464+M5W El Margoum. 
-This renowned teahouse delights tea enthusiasts while offering a rating of 4.2, solidifying its status as a must-visit destination. 
-Its doors are open around the clock, and you can contact them at 98 233 519 for further information.</t>
+          <t>El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated teahouse in Zarzis that's perfect for a relaxing experience and known for its delicious teas?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Port of Zarzis, admiring the bustling maritime activities at this vital fishing harbor.
+Mid-Morning: Immerse yourself in the rich history and culture of the region with a visit to the informative Musé de Zarzis.
+Midday: Delight your palate with the exquisite seafood cuisine at the highly rated Restaurant Amin, known for its delectable dishes and friendly atmosphere.
+Afternoon: Escape the hustle and bustle with a relaxing stroll along the scenic Plage Souihel Zarzis, enjoying the tranquil beauty of the coastline.
+Evening: Pamper yourself with a rejuvenating spa experience at the luxurious Suites Hotel Les Seigniors, where you can indulge in soothing treatments and unwind in the tranquil ambiance.
+Night: Immerse yourself in the local culture and ambiance at the lively O'miams zarzis Sandwicherie, savoring delicious dishes while engaging with the friendly locals.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Hannibal is a cafe located in Zarzis, Tunisia. It is a popular spot for locals and tourists alike, offering a wide variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its cozy atmosphere.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1332,65 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a great Cafe, check out RBAT EL HALFAWIN located at G454+XR4 RBAT EL HALFAWIN, Route de Jerba, Av. Mohamed V, Zarzis 4170. With a rating of 4.1, this top-rated spot is open 24 hours a day and offers a range of Cafe options to choose from. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at https://www.google.com/maps/place/RBAT+EL+HALFAWIN/data=!4m7!3m6!1s0x13aaef0510574fbf:0x9a0da9f97a2968a3!8m2!3d33.5098774!4d11.1070675!16s%2Fg%2F1tcz03b2!19sChIJv09XEAXvqhMRo2gpevmpDZo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 719 219.</t>
+          <t>RBAT EL HALFAWIN is a cafe located in Zarzis, Tunisia. It is situated on Route de Jerba, Av. Mohamed V and has an overall rating of 4.1 based on 37 reviews. The cafe offers a cozy and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. It is open 24 hours a day, making it a convenient spot to visit at any time.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find RBAT EL HALFAWIN, a highly-rated cafe with 24-hour service featuring a great Cafe menu, in Zarzis?</t>
+          <t>Day Plan:
+Morning: Explore the bustling port of Zarzis, a hub of fishing activities, offering a glimpse into the local economy and maritime culture.
+Mid-Morning: Afterward, head to the nearby Musee de Zarzis to delve into the rich history and culture of the region through captivating exhibits.
+Midday: Indulge in an authentic seafood dining experience at Restaurant Amin, known for its delectable culinary offerings and highly rated service.
+Afternoon: Take a leisurely stroll along the scenic Plage Souihel Zarzis, where you can soak up the sun, admire the picturesque coastline, and find respite from the afternoon heat.
+Evening: Immerse yourself in the local culinary scene by trying local cuisine at Lamma food, a cozy pizzeria with a delightful ambiance, perfect for enjoying a flavorful meal.
+Night: Relax and unwind at Cafe Gourmand, a charming cafe known for its delectable cheese cake and inviting atmosphere. Engage in conversations with locals, soak in the local vibes, and savor the sweet treat.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant le rendez-vous zarzis is a 5-star rated restaurant located in Zarzis, Tunisia. It's situated at 33.5041224 latitude and 11.0882028 longitude, near Plage El Batoire. Unfortunately, there's no additional information available about its menu or services.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1492,65 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe Gourmand located at Cafe Gourmand, 1e Arrondissement, Zarzis. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-21:45. To get there, use these GPS coordinates: 18.81035, -72.98772. For more details, visit their website at https://www.google.com/maps/place/Cafe+Gourmand/data=!4m7!3m6!1s0x13aaef0edb49c1e3:0x27bee3c035a27b27!8m2!3d33.5042494!4d11.1098083!16s%2Fg%2F11c2qkll_v!19sChIJ48FJ2w7vqhMRJ3uiNcDjvic?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you visit a top-rated destination with a wide selection of cafe options, perfect for cafe enthusiasts and open at convenient hours?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Port of Zarzis, offering a glimpse into the local fishing industry and showcasing the bustling maritime activities of the region.
+Mid-Morning: Indulge in the delectable seafood cuisine at Restaurant El Bibane, renowned for its exquisite dishes and inviting ambiance.
+Midday: Visit the intriguing Musée de Zarzis to gain insights into the rich history and captivating culture of the region.
+Afternoon: Unwind and soak up the sun at the picturesque Plage Souihel Zarzis, while enjoying the tranquility and serenity of the Mediterranean coast.
+Evening: Take a leisurely stroll through the streets of Zarzis, soaking in the local atmosphere, and indulge in some retail therapy at the bustling marketplace.
+Night: Experience the authentic flavors of Tunisian cuisine at Restaurant Amin, known for its exceptional seafood dishes prepared with local ingredients.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane, situated in Zarzis, Tunisia at the coordinates (33.5298945, 11.0882724), is a highly rated establishment with 4.3 stars out of 5 based on 153 reviews. This restaurant specializes in seafood and offers a range of dishes, including daurade, salads, pasta, and other culinary delights. Restaurant El Bibane is renowned for its exquisite cuisine, inviting ambiance, and exceptional service
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+**Café les Arcades** is a highly-rated café located in Zarzis, Tunisia. It offers a cozy and inviting atmosphere, with a menu featuring a wide variety of coffee, tea, and other beverages. The café is open 24 hours a day, making it a great spot for a quick bite or a late-night hangout.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1335,12 +1652,83 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated cafe, check out Hannibal located at G423+JQG Hannibal, C118. This destination is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 05:00-22:00, but closed on . To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website or call them at 29 306 203.</t>
+          <t>Hannibal is a cafe located in Zarzis, Tunisia. It is a popular spot for locals and tourists alike, offering a wide variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its cozy atmosphere.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a highly-rated cafe offering a wide selection of options, perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis
+- Take a scenic walk along the harbor
+- Observe fishing operations and learn about the local fishing industry
+- Admire the beauty of the docked boats and yachts
+Mid-Morning: Visit the Musé de Zarzis
+- Discover the rich history and culture of Zarzis through interactive exhibits
+- Immerse yourself in the local traditions and heritage
+- Engage with knowledgeable staff for a deeper understanding of the exhibits
+Midday: Try local cuisine at Restaurant Amin
+- Savor the flavors of fresh seafood prepared with traditional Tunisian spices
+- Enjoy the ambiance of the restaurant while indulging in the culinary delights
+- Relish the authentic taste of Zarzis cuisine
+Afternoon: Enjoy recreational activities at Plage Souihel Zarzis
+- Take a refreshing dip in the Mediterranean Sea
+- Build sandcastles and bask in the warm sunshine
+- Engage in beach sports like volleyball or soccer for an active afternoon
+Evening: Witness a traditional performance at the El Margoum tea room
+- Sip on aromatic tea while listening to captivating live music
+- Experience the vibrant ambiance and connect with local performers
+- Immerse yourself in the traditional Tunisian atmosphere
+Night: Relax and rejuvenate at the Suites Hotel Les Seigniors
+- Unwind in the comfortable and luxurious accommodations
+- Pamper yourself with a soothing massage at the hotel spa
+- Indulge in a delectable dinner at the hotel restaurant while enjoying the evening ambiance</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Boubtane is a popular restaurant located in Zran, Zarzis, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open daily from 10:00 AM to 11:00 PM and is closed on Fridays. Restaurant Boubtane has received positive reviews from customers, with many praising the quality of the food and service. The restaurant is conveniently located near the beach and several other attractions.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+First Cup Zarzis is a cafe located in Zarzis, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is open from 5am to midnight, and is closed on Sundays. First Cup Zarzis has a rating of 5.0 on Google, and is known for its friendly staff and delicious coffee. It is located at G464+P79 First Cup Zarzis, Zarzis, and can be contacted at 98 281 606.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1446,14 +1834,65 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe eleanor located at G3CW+RF8 Cafe eleanor, Zarzis. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at nan or call them at 75 738 810.</t>
+          <t>Café eleanor is a cafe located in zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 07:00-23:00 and is closed on []. The cafe's main category is Cafe and its other categories include ['Cafe']. The cafe's phone number is 75 738 810 and its address is G3CW+RF8 Cafe eleanor, Zarzis. The cafe's coordinates are (33.4992942, 11.1081284).</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide selection of beverages in Zarzis?</t>
+          <t>Day Plan:
+Morning: Exploring the bustling Port Zarzis, witnessing the local fishing operations and vibrant maritime activities.
+Mid-Morning: Trying local cuisine at Restaurant el Marsa Zarzis, specializing in local delicacies with positive reviews and an average rating of 4.0.
+Midday: Visiting the highly-rated Musée de la Mémoire de la Mer et de l'Homme, immersing in the region's rich maritime history and heritage.
+Afternoon: Relaxing at Plage Souihel Zarzis, enjoying the serene beach atmosphere and soaking in the sun's warmth.
+Evening: Experiencing cultural immersion at the O'miams Zarzis Sandwicherie, savoring the local flavors and interacting with the friendly locals.
+Night: Exploring the scenic waterfront setting of Port Zarzis Marina, enjoying a leisurely stroll and admiring the tranquil ambiance.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant el Marsa zarzis is a restaurant located in zarzis (33.5298945, 11.0882724) specialized in local cuisine. It has mostly positive reviews with an average rating of 4.0.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+First Cup Zarzis is a cafe located in Zarzis, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is open from 5am to midnight, and is closed on Sundays. First Cup Zarzis has a rating of 5.0 on Google, and is known for its friendly staff and delicious coffee. It is located at G464+P79 First Cup Zarzis, Zarzis, and can be contacted at 98 281 606.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1559,14 +1998,65 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a great Restaurant, check out Fast Food La Palma located at G445+FHV Fast Food La Palma, Av. Mohamed V, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 55.810848, -4.231739. For more details, visit their website at https://www.google.com/maps/place/Fast+Food+La+Palma/data=!4m7!3m6!1s0x13aaef05782cd4c3:0x97d3b61ba394b71c!8m2!3d33.5062256!4d11.1089255!16s%2Fg%2F11dfx6j0jc!19sChIJw9QseAXvqhMRHLeUoxu205c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 994 990.</t>
+          <t>Fast Food La Palma, located in Zarzis, Tunisia (55.810848, -4.231739), is a highly rated (4.1/5) restaurant known for its delicious food offerings. With an average review score of 4.1 based on 10 reviews, Fast Food La Palma is a popular dining destination in the area.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a wide range of categories in Zarzis?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Port of Zarzis, a hub of maritime activities.
+Mid-Morning: Trying local seafood delicacies at Restaurant Amin, known for its exceptional dishes.
+Midday: Visiting the Musee de la Memoire de la Mer et de l'Homme, immersing yourself in the region's maritime history.
+Afternoon: Enjoying a relaxing stay and scenic views at Villa Kika, a charming guest house with a pool and garden.
+Evening: Participating in a lively cultural event at the Gare de Zarzis, a vibrant bus stop with entertainment options.
+Night: Indulging in a delicious dinner at Fast Food La Palma, a highly-rated restaurant offering authentic Tunisian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Fast Food La Palma, located in Zarzis, Tunisia (55.810848, -4.231739), is a highly rated (4.1/5) restaurant known for its delicious food offerings. With an average review score of 4.1 based on 10 reviews, Fast Food La Palma is a popular dining destination in the area.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Hannibal is a cafe located in Zarzis, Tunisia. It is a popular spot for locals and tourists alike, offering a wide variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its cozy atmosphere.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1668,12 +2158,71 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated restaurant, check out lablabi sadok located at G436+G43 lablabi sadok, Av. Mohamed Ali Hammi, Zarzis. With a rating of 4.9, it's a must-visit spot for Restaurant lovers. It's open during these hours: 09:00-23:30, but closed on []. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website or call them at .</t>
+          <t>**Lablabi Sadok** is a popular restaurant located in Zarzis, Tunisia, at coordinates (33.4992942, 11.1081284). It has received an impressive rating of 4.9 based on 10 reviews, highlighting the quality of its offerings. With a prime location in the heart of the city, Lablabi Sadok offers a wide range of dishes, making it a sought-after dining destination.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a 4.9 rating in Zarzis, known for its exceptional dining experience?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Musée de Zarzis to gain insights into the region's rich history and culture.
+**Mid-Morning:**
+- Stroll through the vibrant souks of Zarzis, immersing yourself in local culture and finding unique souvenirs.
+**Midday:**
+- Indulge in a delectable seafood lunch at the highly-rated Restaurant El Bibane, savoring the flavors of traditional Tunisian cuisine.
+**Afternoon:**
+- Unwind at the Plage Souihel Zarzis, where you can bask in the sun, take a refreshing dip in the sea, or try thrilling water sports.
+**Evening:**
+- Embark on a scenic boat trip along the coastline, capturing breathtaking views of the Mediterranean Sea and enjoying a romantic sunset cruise.
+**Night:**
+- Experience the lively ambiance of Zarzis's nightlife at CHICKEN STREET, a fast-food haven known for its delicious chicken dishes and friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane, situated in Zarzis, Tunisia at the coordinates (33.5298945, 11.0882724), is a highly rated establishment with 4.3 stars out of 5 based on 153 reviews. This restaurant specializes in seafood and offers a range of dishes, including daurade, salads, pasta, and other culinary delights. Restaurant El Bibane is renowned for its exquisite cuisine, inviting ambiance, and exceptional service
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Hannibal is a cafe located in Zarzis, Tunisia. It is a popular spot for locals and tourists alike, offering a wide variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its cozy atmosphere.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1779,14 +2328,65 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Presse Cafe located at G445+RG2 Presse Cafe, C117, Zarzis. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on none. To get there, use these GPS coordinates: 55.810848, -4.231739. For more details, visit their website at none or call them at 26 833 833.</t>
+          <t>Presse Cafe is a cafe located at G445+RG2, C117, Zarzis, Tunisia. It has received a 4.4 rating from 9 reviews. The cafe is open from 7:00 AM to midnight every day and offers a variety of coffee and tea drinks, as well as pastries and other snacks.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where is the top-rated Presse Cafe in Zarzis known for its delicious cafe options?</t>
+          <t>Day Plan:
+Morning: Explore the rich history and culture at musée ziane zarzis.
+Mid-Morning: Immerse yourself in the local flavors by trying the delectable seafood dishes at Restaurant Amin.
+Midday: Relax and rejuvenate at the tranquil Plage Souihel Zarzis, soaking up the sun and enjoying the stunning views.
+Afternoon: Discover the wonders of the underwater world by engaging in snorkeling or scuba diving activities.
+Evening: Savor the authentic flavors of Tunisian cuisine at Master Chef Zarzis, a highly-rated restaurant known for its fine dining experience.
+Night: Experience the vibrant nightlife scene at Café eleanor, where you can enjoy live music and mingle with locals.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Master Chef Zarzis is a highly-rated restaurant located in Zarzis, Tunisia. With a rating of 5.0 based on 2 reviews, Master Chef Zarzis offers fine dining  in a convenient location (33.5298945, 11.0882724). Unfortunately, more detailed information, such as their menu, price range, or operating hours, is currently unavailable.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Café eleanor is a cafe located in zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 07:00-23:00 and is closed on []. The cafe's main category is Cafe and its other categories include ['Cafe']. The cafe's phone number is 75 738 810 and its address is G3CW+RF8 Cafe eleanor, Zarzis. The cafe's coordinates are (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1892,12 +2492,65 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a cozy spot to unwind, head to Cafee Charchara situated at F3MR+MWX Cafee Charchara, Unnamed Road, Zarzis. This popular Cafe serves up a delightful menu of offerings. Rated 4.6 out of 5, Cafee Charchara is a must-visit destination for coffee enthusiasts. Their hours of operation are 05:30-01:30 during weekdays. For further information, reach out via phone at 75 748 084.</t>
+          <t>Cafee Charchara is a café located in Zarzis, Tunisia. It offers a variety of coffee drinks, as well as other beverages and snacks. The café is open from 5:30am to 1:30am, and is closed on Sundays. Cafee Charchara has a rating of 4.6 out of 5 stars on Google, and is known for its friendly staff and good coffee. It is located at the following coordinates: (33.4992942, 11.1081284).</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a cozy atmosphere and a diverse menu in Zarzis?</t>
+          <t>Day Plan:
+Morning: Start the day with a guided tour of the Musée de la Mémoire de la Mer et de l'Homme, exploring the maritime history and heritage of Zarzis.
+Mid-Morning: Visit the Port Zarzis marina, boasting a 4.5-star rating, for a scenic waterfront stroll and a glimpse into the city's maritime activities.
+Midday: Indulge in a culinary delight at Le Grand Bleu (4.8 stars), known for its impressive dining experience, and savor the flavors of traditional Zarzis cuisine.
+Afternoon: Explore the city's beauty by visiting the Salon de thé Le Patio, a charming café with a rating of 4.1 out of 5, for a relaxing break in a beautiful setting.
+Evening: Embark on a shopping spree at the local market, discovering authentic Tunisian souvenirs and handmade crafts.
+Night: End the day with a memorable dinner at Cafe Chichkhane, a highly-rated spot (4.7/5) renowned for its ambiance and delectable food, making it a perfect place to unwind and reflect on the day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Grand Bleu, a 4.8-star restaurant in Zarzis, offers an impressive dining experience. Located at coordinates (33.4992942, 11.1081284), the restaurant welcomes guests from 8:30 AM to 11:00 PM daily.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Chichkhane is a must-visit spot in Zarzis, Tunisia. This highly-rated cafe (4.7/5) boasts an impressive ambiance and serves delicious food and drinks. It is conveniently located at G424+MG7 Cafe Chichkhane, Av. 20 Mars, Zarzis 4170, making it easy for both locals and tourists to find. With its daily营业时间 of 4:00 AM to 1:00 AM, you can enjoy your favorite dishes and beverages at any time. Whether you're a coffee enthusiast, a foodie, or simply looking for a cozy place to relax, Cafe Chichkhane is the perfect destination.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2003,14 +2656,65 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a delightful dining experience, step into Mangos, located at G424+HJ3 Mangos, Zarzis. 
-This top-rated restaurant is a haven for food lovers, offering delectable dishes that tantalize your taste buds. With a rating of 4.8, it's a culinary gem you won't want to miss. Mangos is open from 10:00-18:00 during the week, but closed on Sundays. 
-To get there, simply navigate using the GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website or call them at 50 232 020. Indulge in the exquisite flavors that await you at Mangos!</t>
+          <t>Discover Mangos, a top-rated restaurant in Zarzis, Tunisia. With an impressive rating of 4.8 out of 5 stars based on 8 reviews, Mangos promises a delightful dining experience. Located at G424+HJ3 Mangos, Zarzis, it offers a convenient location for you to drop by and savor what it has to offer.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>If you're craving a culinary experience in Zarzis, where can you find a highly rated restaurant known for its delectable cuisine?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant local market to discover unique souvenirs and handicrafts.
+Mid-Morning: Indulge in mouthwatering local cuisine at Restaurant Amin, known for its exceptional seafood dishes.
+Midday: Visit the Port of Zarzis, a bustling hub of maritime activities, and witness the lively fishing operations firsthand.
+Afternoon: Take a refreshing dip in the clear waters of Plage Souihel Zarzis, soaking up the sun and enjoying picturesque views.
+Evening: Experience the historical and cultural heritage of Zarzis at the Musé de Zarzis, where you'll journey through the region's fascinating past.
+Night: Embark on a guided tour of the Port Zarzis Marina, marveling at the elegant yachts and absorbing the tranquility of the waterfront.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Grand Bleu is a restaurant located in Zarzis, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is open from 8:30am to 11pm, 7 days a week. It is located at G424+MJR Le Grand Bleu, shr` 20 mrs, Zarzis. The restaurant has a rating of 4.8 out of 5 on Google, and has received positive reviews for its food, service, and atmosphere.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+First Cup Zarzis is a cafe located in Zarzis, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is open from 5am to midnight, and is closed on Sundays. First Cup Zarzis has a rating of 5.0 on Google, and is known for its friendly staff and delicious coffee. It is located at G464+P79 First Cup Zarzis, Zarzis, and can be contacted at 98 281 606.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2116,15 +2820,65 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a great restaurant, head to Toutou pizza located at G33Q+86P Toutou pizza. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. 
-To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Toutou+pizza/data=!4m7!3m6!1s0x13aaef5f1a9e1603:0x6f8b3186f507b6ce!8m2!3d33.5033263!4d11.0880667!16s%2Fg%2F11lfgq54sp!19sChIJAxaeGl_vqhMRzrYH9YYxi28?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 524 166.</t>
+          <t>Toutou Pizza is an excellent restaurant in Zarzis, Tunisia, located at G33Q+86P. Open 24/7, it offers a variety of delectable dishes, including pizzas, to its customers. With a remarkable rating of 5.0 and 8 positive reviews, Toutou Pizza is a popular destination for food lovers seeking a satisfying culinary experience.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>If you're yearning for a culinary adventure in Zarzis, where can you find the top-rated Restaurant, Toutou pizza, that's conveniently open 24/7?</t>
+          <t>Day Plan:
+Morning: Visit the Musée de Zarzis to delve into the rich history and culture of Zarzis.
+Mid-Morning: Explore the port of Zarzis, a bustling hub of fishing and maritime activities. Witness the vibrant local economy and admire the picturesque waterfront.
+Midday: Satisfy your taste buds with a delightful seafood lunch at Restaurant Amin, known for its fresh catch and culinary expertise.
+Afternoon: Head to the beach at Plage Souihel Zarzis for some relaxation and fun. Indulge in sunbathing, swimming, and breathtaking coastal views.
+Evening: Take a leisurely stroll through the colorful streets of Zarzis, discovering hidden gems and local markets. Engage with the friendly locals and soak up the lively atmosphere.
+Night: Experience a cultural immersion at the Musee de la Memoire de la Mer et de l'Homme. This museum showcases the region's maritime heritage through fascinating exhibits.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Grand Bleu is a restaurant located in Zarzis, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is open from 8:30am to 11pm, 7 days a week. It is located at G424+MJR Le Grand Bleu, shr` 20 mrs, Zarzis. The restaurant has a rating of 4.8 out of 5 on Google, and has received positive reviews for its food, service, and atmosphere.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+**Café les Arcades** is a highly-rated café located in Zarzis, Tunisia. It offers a cozy and inviting atmosphere, with a menu featuring a wide variety of coffee, tea, and other beverages. The café is open 24 hours a day, making it a great spot for a quick bite or a late-night hangout.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2980,65 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a delightful Cafe experience, visit Cafe mosque Lassoued at G369+83H Cafe mosque Lassoued, Zarzis. Rated 4.4 out of 5, this popular destination offers a cozy ambiance perfect for Cafe lovers. With daily hours of operation from 06:00-23:00, it welcomes you to savor its offerings throughout the week.</t>
+          <t>Cafe mosque Lassoued is a cafe located in Zarzis, Tunisia (33.4992942, 11.1081284). It offers a range of services including cafe and has a rating of 4.4 stars out of 7 reviews. The cafe is open from 6am to 11pm, 7 days a week.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Question: Where in Zarzis can you find Cafe mosque Lassoued, a highly-rated Cafe with a cozy ambiance, operating daily from 06:00-23:00?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Fort of Zarzis, a captivating fortification with panoramic views of the coastline.
+Mid-Morning: Trying local cuisine at Toutou Pizza, a popular pizzeria known for its exceptional dishes and 5.0 rating.
+Midday: Visiting the Musé de Zarzis, a museum showcasing the rich history and culture of the region with diverse exhibits and artifacts.
+Afternoon: Enjoying recreational activities at Plage Souihel Zarzis, a beautiful beach offering a relaxing atmosphere, swimming opportunities, and stunning views.
+Evening: Participating in a guided tour of the El Margoum tea room, a local gem serving delectable tea and providing an immersive cultural experience.
+Night: Relishing dinner at Restaurant Amin, a highly-rated seafood restaurant offering fresh, authentic local dishes.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Toutou Pizza is an excellent restaurant in Zarzis, Tunisia, located at G33Q+86P. Open 24/7, it offers a variety of delectable dishes, including pizzas, to its customers. With a remarkable rating of 5.0 and 8 positive reviews, Toutou Pizza is a popular destination for food lovers seeking a satisfying culinary experience.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe eleanor is a cafe located in Zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 7am to 11pm and is closed on . It is located at coordinates (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2341,12 +3148,65 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Salon de the Le Patio located at Place des martyres, Zarzis 4170. This top-rated destination is perfect for Salon de the lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at https://fb.watch/cGDSYVyo9Q/ or call them at 23 719 983.</t>
+          <t>Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you indulge in a Salon de the experience with top-rated offerings at Place des martyres, Zarzis?</t>
+          <t>Day Plan:
+Morning: Explore Musé de Zarzis to learn about the region's history and culture.
+Mid-Morning: Try local cuisine at Restaurant Amin, known for its excellent seafood dishes.
+Midday: Visit the beautiful Port Zarzis marina, offering scenic waterfront views and recreational activities.
+Afternoon: Engage in outdoor activities like swimming or enjoying the sun at Plage Souihel Zarzis.
+Evening: Pamper yourself with a relaxing massage at the spa of Suites Hotel Les Seigniors.
+Night: Experience cultural immersion at Salon de the Le Patio, a charming tea room offering authentic Tunisian delights and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Master Chef Zarzis is a highly-rated restaurant located in Zarzis, Tunisia. With a rating of 5.0 based on 2 reviews, Master Chef Zarzis offers fine dining  in a convenient location (33.5298945, 11.0882724). Unfortunately, more detailed information, such as their menu, price range, or operating hours, is currently unavailable.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe eleanor is a cafe located in Zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 7am to 11pm and is closed on . It is located at coordinates (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2452,12 +3312,65 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a great place to relax and enjoy a cup of coffee, check out Cafe Chichkhane. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 04:00-01:00. To get there, use these GPS coordinates: 33.5298945, 11.0882724.</t>
+          <t>Cafe Chichkhane is a must-visit spot in Zarzis, Tunisia. This highly-rated cafe (4.7/5) boasts an impressive ambiance and serves delicious food and drinks. It is conveniently located at G424+MG7 Cafe Chichkhane, Av. 20 Mars, Zarzis 4170, making it easy for both locals and tourists to find. With its daily营业时间 of 4:00 AM to 1:00 AM, you can enjoy your favorite dishes and beverages at any time. Whether you're a coffee enthusiast, a foodie, or simply looking for a cozy place to relax, Cafe Chichkhane is the perfect destination.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find the highly-rated Cafe Chichkhane that offers an array of coffee options and a relaxing ambiance?</t>
+          <t>Day Plan:
+Morning: Exploring Port of Zarzis (long: 11.11959, lat: 33.49216)
+Mid-Morning: Trying local cuisine at Restaurant Amin (48.9137136, 2.4026955)
+Midday: Visiting the Musee de Zarzis for cultural immersion
+Afternoon: Enjoying a relaxing afternoon at Plage Souihel Zarzis (33.50398, 11.11215)
+Evening: Experiencing the lively atmosphere at Cafe Gourmand (18.81035, -72.98772)
+Night: Partaking in guided tours of the atmospheric Dar Oomi hotel (33.5298945, 11.0882724)</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2555,12 +3468,65 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a great place to eat, check out Cafe my way zarzis located at Cafe my way zarzis, 4140, C118, Zarzis. This top-rated restaurant is perfect for Restaurant lovers and has a rating of 5.0. It's open during these hours: 06:00-20:00, but closed on Dimanche. To get there, use these GPS coordinates: 33.50398, 11.11215.</t>
+          <t>Cafe my way Zarzis is a Restaurant located in zarzis. The place is highly rated with 5.0/5 from 6 reviews. It offers its services from Monday to Saturday from 6 am to 8 pm.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a 5.0 rating in Zarzis, popular among Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Exploring the Port of Zarzis and its bustling maritime activities.
+Mid-Morning: Trying local cuisine at Restaurant el Marsa zarzis, known for its authentic flavors and positive reviews.
+Midday: Visiting the Musée de la Mémoire de la Mer et de l'Homme to delve into the rich maritime history and heritage of the region.
+Afternoon: Enjoying a relaxing stay at Plage Souihel Zarzis, perfect for sunbathing, swimming, and soaking up the coastal atmosphere.
+Evening: Indulging in a delicious seafood dinner at Restaurant Amin, highly rated for its fresh and flavorful dishes.
+Night: Experiencing the vibrant atmosphere at Cafe Stade ZCP, a popular spot for locals and tourists to unwind and socialize.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant el Marsa zarzis is a restaurant located in zarzis (33.5298945, 11.0882724) specialized in local cuisine. It has mostly positive reviews with an average rating of 4.0.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Stade ZCP, nestled in the heart of Zarzis, is an exceptional cafe that offers an unforgettable experience. Located at the convenient coordinates (33.4992942, 11.1081284), this cafe boasts a cozy and inviting ambiance, making it the perfect destination for locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2658,14 +3624,71 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Chez keke located at G454+WVC Chez keke, Zarzis. 
-This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Chez+keke/data=!4m7!3m6!1s0x13aaef21a5d7e1cb:0x79b12b3a8fbacb2e!8m2!3d33.5098045!4d11.1071472!16s%2Fg%2F11j04hpg_t!19sChIJy-HXpSHvqhMRLsu6jzorsXk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated Creperie in Zarzis, known for its 4.2 rating and GPS coordinates 33.4992942, 11.1081284?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore Port of Zarzis:** Witness the bustling maritime activities and marvel at the highly rated fishing operations.
+**Mid-Morning:**
+* **Try local cuisine at Mangos:** Savor delectable dishes at this top-rated restaurant with an impressive 4.8-star rating.
+**Midday:**
+* **Visit Musé de Zarzis:** Delve into the rich history and culture of the region at this captivating museum.
+**Afternoon:**
+* **Enjoy a refreshing swim at Plage Souihel Zarzis:** Relax and rejuvenate at this picturesque villa with a 4.6-star rating.
+**Evening:**
+* **Dine at Restaurant Amin:** Indulge in exquisite seafood dishes at this highly acclaimed restaurant with a perfect 5.0-star rating.
+**Night:**
+* **Relax with a drink at Presse Cafe:** Unwind with a refreshing beverage at this cozy cafe with a 4.4-star rating.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Mangos, a top-rated restaurant in Zarzis, Tunisia. With an impressive rating of 4.8 out of 5 stars based on 8 reviews, Mangos promises a delightful dining experience. Located at G424+HJ3 Mangos, Zarzis, it offers a convenient location for you to drop by and savor what it has to offer.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Presse Cafe is a cafe located at G445+RG2, C117, Zarzis, Tunisia. It has received a 4.4 rating from 9 reviews. The cafe is open from 7:00 AM to midnight every day and offers a variety of coffee and tea drinks, as well as pastries and other snacks.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2771,14 +3794,71 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Le Grand Bleu located at G424+MJR Le Grand Bleu, shr` 20 mrs, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:30-23:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, call them at 96 596 420.</t>
+          <t>Le Grand Bleu, a 4.8-star restaurant in Zarzis, offers an impressive dining experience. Located at coordinates (33.4992942, 11.1081284), the restaurant welcomes guests from 8:30 AM to 11:00 PM daily.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant destination in Zarzis, ideal for food enthusiasts and open during extended hours?</t>
+          <t>Day Plan:
+Morning: Explore Port Zarzis (Marina)
+- Take a leisurely stroll along the scenic waterfront, admiring the glimmering boats and yachts.
+Mid-Morning: Try local cuisine at Restaurant Amin
+- Indulge in a delectable seafood lunch at this highly-rated restaurant, savoring the freshest catches of the day.
+Midday: Visit the Musee de la Memoire de la Mer et de l'Homme
+- Discover the rich maritime history of the region through fascinating exhibits on fishing, shipbuilding, and navigation.
+Afternoon: Enjoy sunbathing and swimming at Plage Souihel Zarzis
+- Escape to the pristine shores of this beautiful beach, bask in the warm sun, and plunge into the refreshing waters.
+Evening: Relax with a spa treatment at Hôtel Bellevue Zarzis
+- Pamper yourself with a rejuvenating spa treatment at this charming hotel, allowing yourself to unwind and recharge.
+Night: Experience cultural immersion at the Musee de Zarzis
+- Immerse yourself in the captivating history and culture of Zarzis, exploring exhibits that showcase the town's heritage and traditions.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant la syrenne** is located at (33.4992942, 11.1081284) in Zarzis. This restaurant has a rating of 3.3 out of 5 based on 8 reviews. It is open from 8:00 AM to 2:00 AM and offers a variety of dishes.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2880,12 +3960,65 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a great cafe, check out Cafe Stade ZCP located at 1e Arrondissement, Zarzis. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on . To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Stade ZCP, nestled in the heart of Zarzis, is an exceptional cafe that offers an unforgettable experience. Located at the convenient coordinates (33.4992942, 11.1081284), this cafe boasts a cozy and inviting ambiance, making it the perfect destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where is Cafe Stade ZCP, a highly-rated cafe in Zarzis with a wide range of categories, offering an exceptional customer experience?</t>
+          <t>Day Plan:
+Morning: Exploring Le Grand Bleu for a hearty breakfast and a stroll along the beautiful waterfront.
+Mid-Morning: Trying out the delicious pizzas at Lamma food while soaking in the cozy atmosphere.
+Midday: Visiting the Port of Zarzis to witness the bustling fishing activities and learn about the local maritime heritage.
+Afternoon: Enjoying a relaxing swim and sunbathing at Plage Souihel Zarzis, embracing the beauty of the coastline.
+Evening: Participating in a guided tour of the Musee de Zarzis to delve into the history and culture of the region.
+Night: Indulging in a delicious seafood dinner at Restaurant Amin and winding down the day with a peaceful stroll along the illuminated shore.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Grand Bleu is a restaurant located in Zarzis, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is open from 8:30am to 11pm, 7 days a week. It is located at G424+MJR Le Grand Bleu, shr` 20 mrs, Zarzis. The restaurant has a rating of 4.8 out of 5 on Google, and has received positive reviews for its food, service, and atmosphere.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+**Café les Arcades** is a highly-rated café located in Zarzis, Tunisia. It offers a cozy and inviting atmosphere, with a menu featuring a wide variety of coffee, tea, and other beverages. The café is open 24 hours a day, making it a great spot for a quick bite or a late-night hangout.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2991,14 +4124,71 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe Ghrab located at F3WR+W77 Cafe Ghrab, Zarzis. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ghrab/data=!4m7!3m6!1s0x13aaef22f92ed0d1:0xffad68dbb169fa5b!8m2!3d33.4972786!4d11.0906563!16s%2Fg%2F11h6t717gn!19sChIJ0dAu-SLvqhMRW_ppsdtorf8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 214 875.</t>
+          <t>Cafe Ghrab, located at (33.4992942, 11.1081284) in Zarzis, is a highly rated cafe with a 5.0 rating. It is open from 09:00-17:00 and offers a cozy atmosphere to enjoy its cafe offerings.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a highly rated Cafe with a 5.0-star rating, perfect for Cafe lovers, and located at F3WR+W77?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the **Port of Zarzis**, a bustling hub for fishing operations and maritime activities.
+**Mid-Morning:**
+* Visit the **Musee de la Memoire de la Mer et de l'Homme**, which showcases the region's maritime history and culture.
+**Midday:**
+* Lunch at **Restaurant Amin**, a highly-rated seafood restaurant.
+**Afternoon:**
+* Relax and enjoy the sun at **Plage Souihel Zarzis**, a charming villa with beach access.
+**Evening:**
+* Take a sunset stroll along the scenic **Port Zarzis** marina and admire the picturesque waterfront views.
+**Night:**
+* Dine at **Cafe my way Zarzis**, a highly-rated restaurant offering a cozy ambiance and delectable dishes.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe my way Zarzis is a Restaurant located in zarzis. The place is highly rated with 5.0/5 from 6 reviews. It offers its services from Monday to Saturday from 6 am to 8 pm.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe Ghrab, located at (33.4992942, 11.1081284) in Zarzis, is a highly rated cafe with a 5.0 rating. It is open from 09:00-17:00 and offers a cozy atmosphere to enjoy its cafe offerings.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3096,14 +4286,65 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Fastfood Lazhar located at F3PJ+5R6 Fastfood Lazhar, Zarzis. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:04-21:05. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Fastfood+Lazhar/data=!4m7!3m6!1s0x13aaef18986b170d:0x432c370e40d7ef1c!8m2!3d33.4851605!4d11.0819408!16s%2Fg%2F11k4jpht61!19sChIJDRdrmBjvqhMRHO_XQA43LEM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restauration rapide establishment with a 5.0 rating in Zarzis?</t>
+          <t>Day Plan:
+Morning: Exploring the Port of Zarzis to learn about the local fishing industry and admire the bustling maritime activities.
+Mid-Morning: Trying local cuisine at Top Chef Restaurant, known for its excellent food and 5.0 rating.
+Midday: Visiting the Musée de Zarzis to gain insights into the history and culture of the region through its exhibits.
+Afternoon: Relaxing with a swim and enjoying the scenic waterfront setting at Port Zarzis.
+Evening: Participating in a guided tour of the Gare de Zarzis to learn about its transportation significance and capture the city's energy.
+Night: Experiencing cultural immersion at the musée ziane zarzis to delve into the region's rich heritage and traditions.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Top Chef Restaurant is a restaurant located in Zarzis, Tunisia, it is specifically situated at G427+2Q5. The restaurant is open from Monday to Saturday from 11:30 am to 9:30 pm, but it is closed on Sundays. With a 5.0 rating, Top Chef Restaurant is a great place to enjoy a meal.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Chichkhane is a must-visit spot in Zarzis, Tunisia. This highly-rated cafe (4.7/5) boasts an impressive ambiance and serves delicious food and drinks. It is conveniently located at G424+MG7 Cafe Chichkhane, Av. 20 Mars, Zarzis 4170, making it easy for both locals and tourists to find. With its daily营业时间 of 4:00 AM to 1:00 AM, you can enjoy your favorite dishes and beverages at any time. Whether you're a coffee enthusiast, a foodie, or simply looking for a cozy place to relax, Cafe Chichkhane is the perfect destination.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3209,14 +4450,71 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe Liberte located at Av. Farhat Hached, Zarzis. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 35.943278, 8.828144. For more details, visit their website at or call them at 24 339 880.</t>
+          <t>Cafe Liberte is a renowned cafe located in Zarzis, Tunisia. It offers a welcoming ambiance with a focus on customer satisfaction. Cafe Liberte is conveniently located at Av. Farhat Hached, making it easily accessible for visitors. The cafe is open from 5:00 AM to 11:00 PM on weekdays, providing ample opportunity for customers to enjoy their offerings. With a rating of 5.0, Cafe Liberte is highly esteemed by its patrons. Its menu features various cafe-style beverages and treats, catering to diverse tastes and preferences.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe with top-rated reviews and a convenient location in Zarzis?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Take a guided tour of the Musée de la Mémoire de la Mer et de l'Homme to learn about the maritime history of Zarzis.
+**Mid-Morning:**
+- Explore the Port of Zarzis and admire the impressive fishing operations.
+**Midday:**
+- Try local cuisine at Restaurant Amin, a highly-rated seafood restaurant.
+**Afternoon:**
+- Relax and enjoy the scenic views at Plage Souihel Zarzis.
+**Evening:**
+- Visit the Gare de Zarzis, a vibrant bus stop where you can observe local life.
+**Night:**
+- Indulge in authentic Tunisian dishes at Restaurant la syrenne, which offers a cozy atmosphere and a variety of culinary delights.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant la syrenne** is located at (33.4992942, 11.1081284) in Zarzis. This restaurant has a rating of 3.3 out of 5 based on 8 reviews. It is open from 8:00 AM to 2:00 AM and offers a variety of dishes.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafee Charchara is a café located in Zarzis, Tunisia. It offers a variety of coffee drinks, as well as other beverages and snacks. The café is open from 5:30am to 1:30am, and is closed on Sundays. Cafee Charchara has a rating of 4.6 out of 5 stars on Google, and is known for its friendly staff and good coffee. It is located at the following coordinates: (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3322,12 +4620,65 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated cafe, check out First Cup Zarzis located at G464+P79 First Cup Zarzis, Zarzis. With a rating of 5.0, it's a must-visit spot for Cafe lovers. It's open from 05:00-00:00 during weekdays, but closed on []. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at [] or call them at 98 281 606.</t>
+          <t>First Cup Zarzis is a cafe located in Zarzis, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is open from 5am to midnight, and is closed on Sundays. First Cup Zarzis has a rating of 5.0 on Google, and is known for its friendly staff and delicious coffee. It is located at G464+P79 First Cup Zarzis, Zarzis, and can be contacted at 98 281 606.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where is the top-rated cafe in zarzis located and what makes it special?</t>
+          <t>Day Plan:
+Morning: Explore the Musée de la Memoire de la Mer et de l'Homme, discovering the rich maritime history of the region.
+Mid-Morning: Try local cuisine at Restaurant Amin, savoring the authentic flavors of Zarzis's seafood.
+Midday: Visit the scenic Port Zarzis marina, offering breathtaking waterfront views and recreational activities.
+Afternoon: Relax at Plage Souihel Zarzis, enjoying the sun, sand, and tranquil atmosphere of this beautiful beach.
+Evening: Indulge in a culinary experience at Dar Nesma lodge and guest house, relishing the delectable cuisine and sea views from its charming rooms.
+Night: Participate in the lively entertainment at Hotel Eden Star, enjoying the hotel's animation activities and friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+DAR SHATT, rated 5.0 by 2 reviews, is a restaurant located at DAR SHATT, shT lbTwr, Zarzis 4170. Its coordinates are (33.5298945, 11.0882724), and its phone number is 24 531 667.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3433,14 +4784,65 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a tasty coffee, check out Cafe les Arcades located at qSr wld s`yd, shrk@ ls`d@ llmwd lGdhy'y@ 4170, Zarzis. 
-This top-rated destination offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at https://www.google.com/maps/place/Cafe+les+Arcades/data=!4m7!3m6!1s0x13aaef7b2369851d:0x2f6ad65354b4bdbb!8m2!3d33.5085236!4d11.1060046!16s%2Fg%2F11sy58hpym!19sChIJHYVpI3vvqhMRu720VFPWai8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 470 839.</t>
+          <t>**Café les Arcades** is a highly-rated café located in Zarzis, Tunisia. It offers a cozy and inviting atmosphere, with a menu featuring a wide variety of coffee, tea, and other beverages. The café is open 24 hours a day, making it a great spot for a quick bite or a late-night hangout.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe with a delightful coffee menu in Zarzis?</t>
+          <t>Day Plan:
+Morning: Explore the Port Zarzis, which is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities.
+Mid-Morning: Visit the Musee de Zarzis, a museum that offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people.
+Midday: Try local cuisine at Baba El Haj, a fast food restaurant located in Zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+Afternoon: Relax with a spa treatment at the beautiful Suites Hotel Les Seigniors. The hotel offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Evening: Take a guided tour of the Gare de Zarzis, a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+Night: Enjoy the scenic views at the Plage Souihel Zarzis, a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Fast Food La Palma, located in Zarzis, Tunisia (55.810848, -4.231739), is a highly rated (4.1/5) restaurant known for its delicious food offerings. With an average review score of 4.1 based on 10 reviews, Fast Food La Palma is a popular dining destination in the area.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Stade ZCP, nestled in the heart of Zarzis, is an exceptional cafe that offers an unforgettable experience. Located at the convenient coordinates (33.4992942, 11.1081284), this cafe boasts a cozy and inviting ambiance, making it the perfect destination for locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3546,13 +4948,65 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated Hotel, check out Dar Oomi located at Dar Oomi, Km 33 Route de Djerba, Zarzis 4170. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at http://www.dar-oomi.com/ or call them at 29 172 388.</t>
+          <t>Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a renowned Hotel in Zarzis with a 4.6 rating and excellent location?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the **Port of Zarzis** (long: 11.11959, lat: 33.49216) to witness the bustling maritime activities of the city. Engage in outdoor activities like fishing or boat tours.
+Mid-Morning: Head to **Chez keke**, a creperie with a 4.2 rating, for a delightful breakfast. Savor the flavors of local cuisine while taking in the cozy atmosphere.
+Midday: Try the delectable pizzas at **Lamma food**, a pizzeria with an impressive 4.8-star rating. Indulge in a flavorful meal amidst the restaurant's cozy ambiance.
+Afternoon: Visit the **Musé de Zarzis** to delve into the rich history and culture of the region. Explore the diverse exhibits to gain insights into Zarzis' past and present.
+Evening: Experience the lively atmosphere at **Cafe Liberte**, a renowned cafe with a perfect 5.0 rating. Enjoy a cup of coffee or tea while savoring the local cafe culture.
+Night: Conclude the day with a relaxing stay at **Suites Hotel Les Seigniors**. Immerse yourself in comfort and enjoy the hotel's amenities, including an outdoor pool, fitness center, and spa.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Grand Bleu, a 4.8-star restaurant in Zarzis, offers an impressive dining experience. Located at coordinates (33.4992942, 11.1081284), the restaurant welcomes guests from 8:30 AM to 11:00 PM daily.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Liberte is a renowned cafe located in Zarzis, Tunisia. It offers a welcoming ambiance with a focus on customer satisfaction. Cafe Liberte is conveniently located at Av. Farhat Hached, making it easily accessible for visitors. The cafe is open from 5:00 AM to 11:00 PM on weekdays, providing ample opportunity for customers to enjoy their offerings. With a rating of 5.0, Cafe Liberte is highly esteemed by its patrons. Its menu features various cafe-style beverages and treats, catering to diverse tastes and preferences.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3658,14 +5112,65 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Dar Oomi located at Dar Oomi, Km 33 Route de Djerba, Zarzis 4170. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at http://www.dar-oomi.com/ or call them at 29 172 388.</t>
+          <t>Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a 4.6-rated destination with a variety of hotel options, perfect for those interested in hotels?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis to learn about the bustling maritime activities.
+Mid-Morning: Indulge in the local cuisine by trying the delicious pizzas at Lamma food.
+Midday: Visit the Musée de Zarzis to gain insights into the history and culture of the region.
+Afternoon: Enjoy a relaxing stroll along the Plage Souihel Zarzis for scenic views.
+Evening: Participate in a guided tour of the Dar Nesma lodge and guest house to admire its charming ambiance and sea views.
+Night: Dine at Restaurant el Marsa zarzis for an authentic local culinary experience.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant el Marsa zarzis is a restaurant located in zarzis (33.5298945, 11.0882724) specialized in local cuisine. It has mostly positive reviews with an average rating of 4.0.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe Liberte is a renowned cafe located in Zarzis, Tunisia. It offers a welcoming ambiance with a focus on customer satisfaction. Cafe Liberte is conveniently located at Av. Farhat Hached, making it easily accessible for visitors. The cafe is open from 5:00 AM to 11:00 PM on weekdays, providing ample opportunity for customers to enjoy their offerings. With a rating of 5.0, Cafe Liberte is highly esteemed by its patrons. Its menu features various cafe-style beverages and treats, catering to diverse tastes and preferences.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3775,12 +5280,65 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a place to stay, consider Hotel Bellevue Zarzis, located at Zone Touristique Sangho. This top-rated hotel is perfect for those seeking a comfortable stay and offers a range of amenities, including a restaurant, cafe, and swimming pool. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.5459906, 11.0902961. For more details, visit their website at http://www.bellevuezarzis.com/ or call them at 75 707 455.</t>
+          <t>Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with a restaurant, cafe, and swimming pool in the Zone Touristique Sangho of Zarzis?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis to learn about the local fishing industry.
+Mid-Morning: Try local cuisine at Restaurant Boubtane, known for its traditional Tunisian dishes.
+Midday: Visit the Musee de la Memoire de la Mer et de l'Homme to delve into the region's maritime history.
+Afternoon: Enjoy the sun and sand at Plage Souihel Zarzis, offering a relaxing and scenic beach experience.
+Evening: Head to Cafe Gourmand for a cozy atmosphere and delicious cheese cake.
+Night: Experience the vibrant nightlife at O'miams zarzis, a Sandwicherie with a lively ambiance and great food.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Boubtane is a popular restaurant located in Zran, Zarzis, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open daily from 10:00 AM to 11:00 PM and is closed on Fridays. Restaurant Boubtane has received positive reviews from customers, with many praising the quality of the food and service. The restaurant is conveniently located near the beach and several other attractions.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3878,12 +5436,71 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a restful stay, check out Hotel Eden Star located at G33Q+J7W Hotel Eden Star, Unnamed Road, Zarzis. This highly-rated hotel is perfect for Hotel lovers with a rating of 4.1. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Hotel+Eden+Star/data=!4m10!3m9!1s0x13aaef3eaaaaaaab:0xec56aa6e2e5d3389!5m2!4m1!1i2!8m2!3d33.5041224!4d11.0882028!16s%2Fg%2F11d_1m3mpn!19sChIJq6qqqj7vqhMRiTNdLm6qVuw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and seeking a highly-rated hotel for a relaxing stay, what is the name of the property located at GPS coordinates 33.4992942, 11.1081284?</t>
+          <t>Day Plan:
+Morning:
+- Explore the Port of Zarzis (long: 11.11959, lat: 33.49216) to witness the bustling maritime activities in the region.
+Mid-Morning:
+- Visit the Musé de Zarzis (Museum) to gain insights into the rich history and culture of the area.
+Midday:
+- Enjoy a leisurely lunch at Restaurant Amin, (48.9137136, 2.4026955) specializing in fresh seafood delicacies.
+Afternoon:
+- Relax and soak up the sun at Plage Souihel Zarzis (33.50398, 11.11215), a serene beach offering breathtaking views.
+Evening:
+- Experience the vibrant atmosphere of Cafee Charchara, a local café renowned for its friendly staff and exceptional coffee.
+Night:
+- Indulge in a delightful dinner at Pizza Bab Elhara, a pizzeria offering an array of authentic Italian dishes in a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe my way zarzis is a restaurant located in Zarzis, Tunisia. It is open from 6:00 AM to 8:00 PM, Monday to Saturday. The restaurant has a 5.0 rating on Google and offers a relaxed atmosphere. It is perfect for a quick bite or a leisurely meal.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafee Charchara is a café located in Zarzis, Tunisia. It offers a variety of coffee drinks, as well as other beverages and snacks. The café is open from 5:30am to 1:30am, and is closed on Sundays. Cafee Charchara has a rating of 4.6 out of 5 stars on Google, and is known for its friendly staff and good coffee. It is located at the following coordinates: (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3989,12 +5606,71 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Dar Nesma located at Dar Nesma, souhiel BP153, Zarzis 4173. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Lodge to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.5459906, 11.0902961. For more details, visit their website at http://www.dar-nesma.com/ or call them at 55 900 708.</t>
+          <t>Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a highly-rated destination offering a range of accommodations for Maison d'hotes enthusiasts?</t>
+          <t>Day Plan:
+**Morning:**
+- Exploring the **Port of Zarzis** to witness local fishing operations and maritime activities.
+**Mid-Morning:**
+- Trying local cuisine at **Restaurant el Marsa zarzis**, known for its authentic Tunisian flavors and positive reviews.
+**Midday:**
+- Visiting the **Musé de Zarzis** to delve into the rich history and culture of Zarzis.
+**Afternoon:**
+- Enjoying a relaxing stay at **Hotel Eden Star** with its comfortable rooms and excellent restaurant.
+**Evening:**
+- Having a peaceful stroll along **Plage Souihel Zarzis** to admire the scenic coastal views.
+**Night:**
+- Experiencing the vibrant atmosphere at **Pizza Bab Elhara**, savoring delicious pizzas and immersing oneself in the local dining scene.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant el Marsa zarzis is a restaurant located in zarzis (33.5298945, 11.0882724) specialized in local cuisine. It has mostly positive reviews with an average rating of 4.0.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe mosque Lassoued is a cafe located in Zarzis, Tunisia (33.4992942, 11.1081284). It offers a range of services including cafe and has a rating of 4.4 stars out of 7 reviews. The cafe is open from 6am to 11pm, 7 days a week.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4096,12 +5772,71 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated accommodation, Suites Hotel Les Seigniors is a must-visit spot. Located at Suite Hotel les Seigniors zone touristique Sangho, Zarzis 4173, this 4.5-starred destination is perfect for those seeking Hebergement d'interieur. You can contact them at 98 336 744.</t>
+          <t>Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated accommodation in Zarzis that offers Hebergement d'interieur?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the picturesque Port of Zarzis, a bustling hub of maritime activities.
+**Mid-Morning:**
+* Visit the musée ziane zarzis, immersing yourself in the local history and culture.
+**Midday:**
+* Savor a delectable seafood lunch at Restaurant Amin, known for its exceptional cuisine.
+**Afternoon:**
+* Indulge in a delightful stroll along Plage Souihel Zarzis, soaking up the sun and enjoying the serene ambiance.
+**Evening:**
+* Embark on a guided tour of Dar Nesma, a charming lodge offering breathtaking sea views.
+**Night:**
+* Relish a traditional dinner at Top Chef Restaurant, a culinary haven with impeccable ambiance and rave reviews.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Top Chef Restaurant is a restaurant located in Zarzis, Tunisia, it is specifically situated at G427+2Q5. The restaurant is open from Monday to Saturday from 11:30 am to 9:30 pm, but it is closed on Sundays. With a 5.0 rating, Top Chef Restaurant is a great place to enjoy a meal.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4207,12 +5942,71 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a place to stay, consider Dar Oomi. Located at Dar Oomi, Km 33 Route de Djerba, Zarzis 4170, this top-rated hotel is perfect for those seeking a comfortable and convenient stay. With a rating of 4.6, it's a must-visit spot. For more details, visit their website at http://www.dar-oomi.com/ or call them at 29 172 388.</t>
+          <t>**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel (4.6) in Zarzis, conveniently located at Dar Oomi, Km 33 Route de Djerba?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the historic Port of Zarzis, experiencing the vibrant maritime culture and admiring the picturesque waterfront.
+**Mid-Morning:**
+* Visit the Musee de la Memoire de la Mer et de l'Homme, immersing yourself in the rich maritime history of Zarzis.
+**Midday:**
+* Delight in a flavorful lunch at Restaurant El Bibane, savoring the delectable seafood and enjoying the panoramic sea views.
+**Afternoon:**
+* Relax and unwind at the serene Plage Souihel Zarzis, soaking up the warm sunshine and enjoying a leisurely swim in the pristine waters.
+**Evening:**
+* Embark on a guided tour of the Musee de Zarzis, gaining insights into the captivating history and heritage of the region.
+**Night:**
+* Indulge in a memorable dining experience at Cafe Liberte, relishing the aromatic coffee creations and delectable treats while soaking in the inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe Liberte is a renowned cafe located in Zarzis, Tunisia. It offers a welcoming ambiance with a focus on customer satisfaction. Cafe Liberte is conveniently located at Av. Farhat Hached, making it easily accessible for visitors. The cafe is open from 5:00 AM to 11:00 PM on weekdays, providing ample opportunity for customers to enjoy their offerings. With a rating of 5.0, Cafe Liberte is highly esteemed by its patrons. Its menu features various cafe-style beverages and treats, catering to diverse tastes and preferences.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4318,12 +6112,71 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a cozy place to stay, consider Villa Kika located at Chemin de la plage de, Zarzis. This top-rated destination is perfect for Chambre d'hotes lovers and offers a rating of 4.4. For more details, visit their website at http://villa-kika-zarzis.com/ or call them at 20 154 010.</t>
+          <t>Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a top-rated Chambre d'hotes with a 4.4 rating for a cozy stay?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling **Port of Zarzis** and witness the local fishing industry.
+**Mid-Morning:**
+* Visit the **musée ziane zarzis** to immerse yourself in the history and culture of the region.
+**Midday:**
+* Savor local cuisine at **Cafe my way Zarzis**, highly rated for its exceptional food and service.
+**Afternoon:**
+* Enjoy the warm sun and relax at the picturesque **Plage Souihel Zarzis**.
+**Evening:**
+* Take a guided tour of the **Kasbah of Zarzis**, an ancient fortress with historical significance.
+**Night:**
+* Experience the vibrant atmosphere at **Suites Hotel Les Seigniors** and enjoy a memorable dinner while admiring the city views.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe my way Zarzis is a Restaurant located in zarzis. The place is highly rated with 5.0/5 from 6 reviews. It offers its services from Monday to Saturday from 6 am to 8 pm.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe mosque Lassoued is a cafe located in Zarzis, Tunisia (33.4992942, 11.1081284). It offers a range of services including cafe and has a rating of 4.4 stars out of 7 reviews. The cafe is open from 6am to 11pm, 7 days a week.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4425,14 +6278,65 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Marina Cafe located at G4G7+9M6 Marina Cafe, Residence La Corniche, Avenue De La Republique, Zarzis 2060. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 3.7, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 36.820534685077, 10.309442677679. For more details, visit their website at https://www.google.com/maps/place/Marina+Cafe/data=!4m7!3m6!1s0x13aaeef8eff6b145:0xb6648f487ba74507!8m2!3d33.5259155!4d11.114127!16s%2Fg%2F11c4bfqsk_!19sChIJRbH27_juqhMRB0Wne0iPZLY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Marina Cafe is a well-established coffee shop located in the city of Zarzis, Tunisia. Situated on the waterfront with beautiful surroundings, the café offers a scenic view of the marina. It is a very popular local hangout spot and also among tourists, owing to its friendly staff and delicious food. The café has an extensive menu with a wide range of options, including pizzas, crêpes, and other snacks. They also have a selection of drinks, including coffee, tea, and juices. Marina Cafe is opened every day from 6 AM to 1 AM, except for Sundays.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where is the must-visit spot for café lovers in Zarzis, renowned for its top-rated quality and extensive category options?</t>
+          <t>Day Plan:
+Morning: Visit the Musée de Zarzis to explore the history and culture of the region.
+Mid-Morning: Enjoy a delicious breakfast with local delicacies at Salon de the Le Patio.
+Midday: Take a guided tour of the Port of Zarzis to learn about the fishing industry and maritime activities.
+Afternoon: Relax and sunbathe at Plage Souihel Zarzis, enjoying the beautiful coastal views.
+Evening: Indulge in a delightful dinner at Restaurant Amin, renowned for its fresh seafood.
+Night: Experience the vibrant atmosphere of Lamma food, savoring mouthwatering pizzas in a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant la syrenne** is located at (33.4992942, 11.1081284) in Zarzis. This restaurant has a rating of 3.3 out of 5 based on 8 reviews. It is open from 8:00 AM to 2:00 AM and offers a variety of dishes.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe mosque Lassoued is a cafe located in Zarzis, Tunisia (33.4992942, 11.1081284). It offers a range of services including cafe and has a rating of 4.4 stars out of 7 reviews. The cafe is open from 6am to 11pm, 7 days a week.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4530,12 +6434,78 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated port, check out Port de peche Zarzis. This popular destination has a 4.5 rating and is perfect for port lovers. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 33.49216, 11.11959. For more details, visit their website at  or call them at .</t>
+          <t>**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>What coordinates will lead you to a top-rated port with a 4.5 rating located in Zarzis?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the **Cafe my way Zarzis**, a highly-rated restaurant in the heart of Zarzis.
+* Indulge in a traditional Tunisian breakfast of "makroudh" and mint tea.
+**Mid-Morning:**
+* Visit the **Musee de la Memoire de la Mer et de l'Homme** to delve into the maritime heritage of the region.
+* Take a guided tour of the exhibits showcasing fishing, shipbuilding, and navigation.
+**Midday:**
+* Have a delightful lunch at **Port Zarzis**, a marina known for its 4.5-star rating and scenic waterfront setting.
+* Savor fresh seafood dishes while enjoying the ambiance of the harbor.
+**Afternoon:**
+* Embark on a boat trip from **Port Zarzis** to explore the coastline and admire the picturesque views of Zarzis Bay.
+* Engage in water activities such as snorkeling or kayaking.
+**Evening:**
+* Relax and rejuvenate at the **Suites Hotel Les Seigniors**.
+* Pamper yourself with a rejuvenating spa treatment or unwind by the outdoor pool.
+**Night:**
+* Experience the local cuisine at **Restaurant Amin**, a 5.0-rated seafood restaurant.
+* Indulge in a sumptuous dinner of grilled fish and traditional Tunisian desserts.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe my way Zarzis is a Restaurant located in zarzis. The place is highly rated with 5.0/5 from 6 reviews. It offers its services from Monday to Saturday from 6 am to 8 pm.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe Liberte is a renowned cafe located in Zarzis, Tunisia. It offers a welcoming ambiance with a focus on customer satisfaction. Cafe Liberte is conveniently located at Av. Farhat Hached, making it easily accessible for visitors. The cafe is open from 5:00 AM to 11:00 PM on weekdays, providing ample opportunity for customers to enjoy their offerings. With a rating of 5.0, Cafe Liberte is highly esteemed by its patrons. Its menu features various cafe-style beverages and treats, catering to diverse tastes and preferences.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4633,14 +6603,77 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Port Zarzis located at F4W9+7JQ Port Zarzis, Zarzis. 
-This Port de plaisance lovers and offers a range of Port de plaisance to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.4928719, 11.1139265. For more details, visit their website at https://www.google.com/maps/place/Port+Zarzis/data=!4m7!3m6!1s0x13aaef0d947599c5:0x456f35b166ea1c41!8m2!3d33.4957213!4d11.1191015!16s%2Fg%2F1213j1vf!19sChIJxZl1lA3vqhMRQRzqZrE1b0U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>What is the name of the place in Zarzis that features a range of Port de plaisance options and boasts a high rating of 4.5?</t>
+          <t>Day Plan:
+Morning:
+- Explore the vibrant streets of Zarzis city center
+- Visit the historic El Margoum tea room for a local charm
+Mid-Morning:
+- Immerse in history and culture at the Musé de Zarzis
+- Savor the local flavors at Restaurant Amin for authentic seafood cuisine
+Midday:
+- Take a refreshing dip at Plage Souihel Zarzis
+- Enjoy scenic views at the tranquil Port of Zarzis
+Afternoon:
+- Relax and rejuvenate with a traditional massage at Suites Hotel Les Seigniors
+- Indulge in shopping at the local markets for souvenirs and local products
+Evening:
+- Experience the vibrant atmosphere at RBAT EL HALFAWIN cafe
+- Relish traditional Tunisian cuisine at Pizza Bab Elhara
+Night:
+- Explore the nightlife at Chez keke for a memorable evening
+- Enjoy a starlit stay at Dar Oomi hotel, admiring the city lights</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant el Marsa zarzis is a restaurant located in zarzis (33.5298945, 11.0882724) specialized in local cuisine. It has mostly positive reviews with an average rating of 4.0.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+RBAT EL HALFAWIN is a cafe located in Zarzis, Tunisia. It is situated on Route de Jerba, Av. Mohamed V and has an overall rating of 4.1 based on 37 reviews. The cafe offers a cozy and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. It is open 24 hours a day, making it a convenient spot to visit at any time.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4742,14 +6775,71 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something delicious, check out la syrenne `rws lbHr located at G4F7+HR6 la syrenne `rws lbHr, Unnamed Road,, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 3.3, it's a must-visit spot. It's open during these hours: 08:00-02:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/la+syrenne+%D8%B9%D8%B1%D9%88%D8%B3+%D8%A7%D9%84%D8%A8%D8%AD%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x13aaeef8ccdea577:0xc39c0dca3b366c6!8m2!3d33.5239154!4d11.1145196!16s%2Fg%2F11c0vq7lz_!19sChIJd6XezPjuqhMRxmazo9zAOQw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Restaurant la syrenne** is located at (33.4992942, 11.1081284) in Zarzis. This restaurant has a rating of 3.3 out of 5 based on 8 reviews. It is open from 8:00 AM to 2:00 AM and offers a variety of dishes.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where is the top-rated restaurant for Restaurant enthusiasts located in Zarzis, and what is its unique feature?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the lively Port of Zarzis to witness the bustling maritime activities and immerse yourself in the local fishing culture.
+**Mid-Morning:**
+* Visit the Musée de la Mémoire de la Mer et de l'Homme to delve into the rich maritime heritage and history of Zarzis.
+**Midday:**
+* Savor authentic Tunisian cuisine at Restaurant Amin, renowned for its exceptional seafood dishes.
+**Afternoon:**
+* Relax and rejuvenate at a traditional hammam, offering a unique and authentic cultural experience.
+**Evening:**
+* Take a leisurely stroll along Plage Souihel Zarzis, enjoying the tranquil ambiance and picturesque coastal views.
+**Night:**
+* Experience the vibrant atmosphere of Café les Arcades, where you can unwind with a refreshing drink and soak up the local culture.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pizza Latinos is a 4.2 rated restaurant located in Zarzis, Tunisia. It's open from 10:00 AM to 11:00 PM and offers a variety of dining options. The restaurant is located at coordinates (55.810848, -4.231739).
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+**Café les Arcades** is a highly-rated café located in Zarzis, Tunisia. It offers a cozy and inviting atmosphere, with a menu featuring a wide variety of coffee, tea, and other beverages. The café is open 24 hours a day, making it a great spot for a quick bite or a late-night hangout.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4859,12 +6949,65 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking to explore its history, visit Musee de la Memoire de la Mer et de l'Homme at G4W4+2R 3e Arrondissement Souihel, Souihel Zarzis 4173. With a rating of 4.7 and 7 reviews, this top-rated museum is perfect for history enthusiasts. It's open during these hours: 10:00 AM - 1:00 PM, 3:00 PM - 6:00 PM, but closed on . For more details, visit their website at http://zarziszitazarzis.blogspot.com/ or call them at 98 254 426.</t>
+          <t>The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you delve into the area's rich history at a top-rated museum with high ratings and positive reviews?</t>
+          <t>Day Plan:
+Morning: Exploring the Musée de la Mémoire de la Mer et de l'Homme
+Mid-Morning: Trying local cuisine at Restaurant Amin and exploring the Port of Zarzis
+Midday: Visiting the Gare de Zarzis and enjoying scenic views at Plage Souihel Zarzis
+Afternoon: Participating in a guided tour of the Musee de Zarzis
+Evening: Relaxing with a massage at a spa in Suites Hotel Les Seigniors
+Night: Enjoying a local show and dinner at Hannibal</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pizza Latinos is a 4.2 rated restaurant located in Zarzis, Tunisia. It's open from 10:00 AM to 11:00 PM and offers a variety of dining options. The restaurant is located at coordinates (55.810848, -4.231739).
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Hannibal is a cafe located in Zarzis, Tunisia. It is a popular spot for locals and tourists alike, offering a wide variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its cozy atmosphere.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4966,12 +7109,65 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a highly-rated Villa, check out Plage souihel zarzis located at G4P5+3RM Plage souihel zarzis, Zarzis. With a rating of 4.6, it's a must-visit spot for Villa lovers. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at https://www.google.com/maps/place/Plage+souihel+zarzis/data=!4m7!3m6!1s0x13aaef05a4bf29f1:0x57ba5cb9b3aa3ad8!8m2!3d33.5352023!4d11.1095476!16s%2Fg%2F11ngjm3vrk!19sChIJ8Sm_pAXvqhMR2Dqqs7lculc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 662 844.</t>
+          <t>Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Villa in Zarzis with GPS coordinates of 33.50398, 11.11215?</t>
+          <t>Day Plan:
+Morning: Visit the Musée de la Mémoire de la Mer et de l'Homme to explore the maritime history of Zarzis.
+Mid-Morning: Engage in outdoor activities such as cycling or hiking at Plage Souihel Zarzis.
+Midday: Try local cuisine at Restaurant El Bibane, renowned for its seafood and culinary delights.
+Afternoon: Embark on a guided tour of the Port of Zarzis, gaining insight into the region's fishing industry.
+Evening: Take a stroll along the scenic waterfront promenade at Port Zarzis.
+Night: Relax with a massage and spa treatment at Suites Hotel Les Seigniors, ensuring a rejuvenating end to the day.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane, situated in Zarzis, Tunisia at the coordinates (33.5298945, 11.0882724), is a highly rated establishment with 4.3 stars out of 5 based on 153 reviews. This restaurant specializes in seafood and offers a range of dishes, including daurade, salads, pasta, and other culinary delights. Restaurant El Bibane is renowned for its exquisite cuisine, inviting ambiance, and exceptional service
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Café eleanor is a cafe located in zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 07:00-23:00 and is closed on []. The cafe's main category is Cafe and its other categories include ['Cafe']. The cafe's phone number is 75 738 810 and its address is G3CW+RF8 Cafe eleanor, Zarzis. The cafe's coordinates are (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5069,14 +7265,65 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Restaurant Amin located at G4J7+8Q6 Restaurant Amin, Zarzis. 
-This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 48.9137136, 2.4026955. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Amin/data=!4m7!3m6!1s0x13aaefe60eab6621:0x79aea0e1d0af0938!8m2!3d33.5307865!4d11.114379!16s%2Fg%2F11q2nw6bff!19sChIJIWarDubvqhMROAmv0OGgrnk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>What is the highly-rated Restaurant de fruits de mer destination in Zarzis, known for its exceptional offerings and located at specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring the Port of Zarzis (long: 11.11959, lat: 33.49216)
+Mid-Morning: Trying local cuisine at Restaurant Amin (48.9137136, 2.4026955)
+Midday: Visiting the Musee de la Memoire de la Mer et de l'Homme (33.5459906, 11.0902961)
+Afternoon: Enjoying scenic views at Plage Souihel Zarzis (33.50398, 11.11215)
+Evening: Exploring the lively Zarzis Souk (market)
+Night: Relaxing with a coffee at Cafe Ghrab (33.4992942, 11.1081284)</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Master Chef Zarzis is a highly-rated restaurant located in Zarzis, Tunisia. With a rating of 5.0 based on 2 reviews, Master Chef Zarzis offers fine dining  in a convenient location (33.5298945, 11.0882724). Unfortunately, more detailed information, such as their menu, price range, or operating hours, is currently unavailable.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Ghrab, located at (33.4992942, 11.1081284) in Zarzis, is a highly rated cafe with a 5.0 rating. It is open from 09:00-17:00 and offers a cozy atmosphere to enjoy its cafe offerings.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5178,12 +7425,65 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Musee de Zarzis located at G427+RH6 Musee de Zarzis, Unnamed Road, Zarzis. This top-rated destination is perfect for mtHf lovers and offers a range of mtHf to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 9S-4m, but closed on lthnyn. To get there, use these GPS coordinates: 33.50398, 11.11215.</t>
+          <t>The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated museum with a diverse selection of exhibitions, making it an ideal choice for art enthusiasts in Zarzis?</t>
+          <t>Day Plan:
+Morning: Exploring the Port of Zarzis and learning about the local fishing industry.
+Mid-Morning: Trying local cuisine at Restaurant Boubtane for a taste of traditional Tunisian and international fare.
+Midday: Visiting the Musee de la Memoire de la Mer et de l'Homme to delve into the maritime history of the region.
+Afternoon: Enjoying the scenic waterfront setting at Port Zarzis, offering opportunities for boating and recreational activities.
+Evening: Experiencing cultural immersion at the Musee de Zarzis, showcasing the history and culture of the area.
+Night: Relaxing with a cozy atmosphere and cafe offerings at Cafe Ghrab, known for its warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Boubtane is a popular restaurant located in Zran, Zarzis, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open daily from 10:00 AM to 11:00 PM and is closed on Fridays. Restaurant Boubtane has received positive reviews from customers, with many praising the quality of the food and service. The restaurant is conveniently located near the beach and several other attractions.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe Ghrab, located at (33.4992942, 11.1081284) in Zarzis, is a highly rated cafe with a 5.0 rating. It is open from 09:00-17:00 and offers a cozy atmosphere to enjoy its cafe offerings.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5293,14 +7593,77 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Musee de la Memoire de la Mer et de l'Homme. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 10:00-13:00, 15:00-18:00, but closed on none . To get there, use these GPS coordinates: 33.5459906, 11.0902961. For more details, contact at 98 254 426.</t>
+          <t>Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Question: If you're visiting Zarzis in search of a top-rated Musée experience with a 4.7 rating, which destination should you add to your itinerary, and what makes it exceptional?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the colorful streets of Zarzis.
+- Visit the lively Port of Zarzis to witness the bustling maritime activities.
+**Mid-Morning:**
+- Try local cuisine at the highly-rated Discover Mangos restaurant.
+- Indulge in delectable pastries and beverages at Salon de the Le Patio.
+**Midday:**
+- Visit the Musé de Zarzis to delve into the region's rich history and culture.
+- Enjoy the breathtaking views from the scenic Plage Souihel Zarzis.
+**Afternoon:**
+- Relax and rejuvenate with a relaxing spa treatment at Hôtel Bellevue Zarzis.
+- Explore the vibrant O'miams zarzis Sandwicherie for authentic local flavors.
+**Evening:**
+- Witness the vibrant atmosphere at Port Zarzis marina.
+- Savor a delightful seafood dinner at the highly-rated Restaurant Amin.
+**Night:**
+- Enjoy live music and entertainment at a local venue.
+- Stargaze under the clear night sky along the beachfront.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Mangos, a top-rated restaurant in Zarzis, Tunisia. With an impressive rating of 4.8 out of 5 stars based on 8 reviews, Mangos promises a delightful dining experience. Located at G424+HJ3 Mangos, Zarzis, it offers a convenient location for you to drop by and savor what it has to offer.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+First Cup Zarzis is a cafe located in Zarzis, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is open from 5am to midnight, and is closed on Sundays. First Cup Zarzis has a rating of 5.0 on Google, and is known for its friendly staff and delicious coffee. It is located at G464+P79 First Cup Zarzis, Zarzis, and can be contacted at 98 281 606.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5402,14 +7765,65 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a cultural experience, visit Musee de Zarzis, located at G427+RH6 Musee de Zarzis, Unnamed Road, Zarzis. 
-This top-rated museum is perfect for museum lovers and offers a range of exhibits to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on Monday.</t>
+          <t>Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find the highly-rated Musée de Zarzis, offering a cultural experience with diverse exhibits?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of Zarzis and take in the local sights and sounds.
+Mid-Morning: Visit the **Port of Zarzis** to witness the bustling maritime activities of the town.
+Midday: Try the delicious pizzas amidst the cozy atmosphere of **Lamma food**.
+Afternoon: Relax and enjoy the warm ambiance of **Salon de the Le Patio** while sipping on a refreshing beverage and savoring pastries.
+Evening: Take a leisurely stroll along **Plage Souihel Zarzis** to enjoy the scenic coastal views.
+Night: Experience the lively ambiance of **Cafe Stade ZCP** and engage in memorable conversations over local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Restaurant la syrenne** is located at (33.4992942, 11.1081284) in Zarzis. This restaurant has a rating of 3.3 out of 5 based on 8 reviews. It is open from 8:00 AM to 2:00 AM and offers a variety of dishes.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe Stade ZCP, nestled in the heart of Zarzis, is an exceptional cafe that offers an unforgettable experience. Located at the convenient coordinates (33.4992942, 11.1081284), this cafe boasts a cozy and inviting ambiance, making it the perfect destination for locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5507,12 +7921,65 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you happen to be in zarzis and looking for a thrilling experience, check out musee ziane zarzis located at G23F+6VR musee ziane zarzis. Perfect for Musee enthusiasts, this highly-rated spot offers a variety of options. With an impressive rating of 5.0, it's a must-visit destination. For more details, you can reach them at 75 685 980.</t>
+          <t>musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Musée in Zarzis that offers a thrilling experience?</t>
+          <t>Day Plan:
+Morning: Explore the teeming Port of Zarzis, a hub of maritime activity and local economy.
+Mid-Morning: Immerse yourself in the history and culture of Zarzis at the Musée de la Mémoire de la Mer et de l'Homme.
+Midday: Indulge in a tantalizing culinary experience at Restaurant Amin, renowned for its delectable seafood offerings.
+Afternoon: Pamper yourself with a relaxing spa session at Hôtel Bellevue Zarzis, known for its tranquil ambiance and rejuvenating treatments.
+Evening: Take a leisurely stroll along the picturesque Marina Cafe, offering breathtaking views of the marina and relishing its flavorful pizzas.
+Night: Embark on a guided tour of the historic Kasbah of Zarzis, a captivating journey into the town's rich past and architectural heritage.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Sadok is a renowned restaurant in Zarzis, Tunisia, with a rating of 4.9 and over 10 reviews. It offers traditional Tunisian cuisine with a focus on lablabi, a hearty bean and chickpea stew. The restaurant is located on Avenue Mohamed Ali Hammi and is open daily from 09:00 to 23:30. Come by to enjoy their famous lablabi and experience the vibrant atmosphere of Zarzis.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Marina Cafe is a well-established coffee shop located in the city of Zarzis, Tunisia. Situated on the waterfront with beautiful surroundings, the café offers a scenic view of the marina. It is a very popular local hangout spot and also among tourists, owing to its friendly staff and delicious food. The café has an extensive menu with a wide range of options, including pizzas, crêpes, and other snacks. They also have a selection of drinks, including coffee, tea, and juices. Marina Cafe is opened every day from 6 AM to 1 AM, except for Sundays.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5618,12 +8085,65 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-notch dining experience, head to Restaurant El Bibane, conveniently located at Plage sonia zarzis, 4170, Zarzis. As a highly rated establishment with a 4.3 rating, this sought-after destination caters to Restaurant enthusiasts, offering a wide range of Restaurant options to satisfy your cravings. It's open daily during these hours: 12:00-16:00, 19:00-23:00. To get there, simply follow these GPS coordinates: (33.5298945, 11.0882724). For more details, make sure to visit their website or give them a call at 99 242 403.</t>
+          <t>Restaurant El Bibane, situated in Zarzis, Tunisia at the coordinates (33.5298945, 11.0882724), is a highly rated establishment with 4.3 stars out of 5 based on 153 reviews. This restaurant specializes in seafood and offers a range of dishes, including daurade, salads, pasta, and other culinary delights. Restaurant El Bibane is renowned for its exquisite cuisine, inviting ambiance, and exceptional service</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated dining experience with Restaurant cuisine in Zarzis, conveniently located and boasting a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis, a bustling fishing port with a 4.5-star rating and a glimpse into the local economy.
+Mid-Morning: Visit the Musé de Zarzis, a museum showcasing the rich history and culture of the region.
+Midday: Try local cuisine at Restaurant El Bibane, highly rated for its seafood dishes.
+Afternoon: Relax at Plage Souihel Zarzis, a villa with a 4.6-star rating, offering a tranquil beachfront ambiance.
+Evening: Enjoy scenic views at Café eleanor, a highly-rated cafe with an outdoor seating area overlooking the city.
+Night: Indulge in cultural immersion at Dar Oomi, a 4.6-star-rated hotel with an impressive 19 reviews and a glimpse into traditional Tunisian hospitality.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Café eleanor is a cafe located in zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 07:00-23:00 and is closed on []. The cafe's main category is Cafe and its other categories include ['Cafe']. The cafe's phone number is 75 738 810 and its address is G3CW+RF8 Cafe eleanor, Zarzis. The cafe's coordinates are (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5725,14 +8245,65 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a great Cafe, Cafe Gourmand at 1e Arrondissement is the place to go. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-21:45. To get there, use these GPS coordinates: 18.81035, -72.98772. For more details, visit their website at https://www.google.com/maps/place/Cafe+Gourmand/data=!4m7!3m6!1s0x13aaef0edb49c1e3:0x27bee3c035a27b27!8m2!3d33.5042494!4d11.1098083!16s%2Fg%2F11c2qkll_v!19sChIJ48FJ2w7vqhMRJ3uiNcDjvic?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Gourmand is a cafe in Zarzis, Tunisia, offering a variety of services. It is located at (18.81035, -72.98772) and is a well-rated cafe with a rating of 4.4. It has a featured image and is also known for its cheese cake, which is mentioned in 3 of its reviews.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a top-rated Cafe with a wide selection of options, a 4.4 rating, and operating hours from 08:00-21:45?</t>
+          <t>Day Plan:
+Morning: Explore Musée de la Mémoire de la Mer et de l'Homme and learn about maritime history.
+Mid-Morning: Visit the Port of Zarzis and see a range of boating and recreational activities.
+Midday: Try local cuisine at Restaurant Amin and indulge in Zarzis's flavors.
+Afternoon: Relax and soak up the sun at Plage Souihel Zarzis for a tranquil getaway.
+Evening: Enjoy scenic views at the Port Zarzis marina and witness the beauty of the waterfront.
+Night: Participate in the vibrant atmosphere at Cafe Chichkhane, where you can socialize and enjoy delicious food and drinks.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Grand Bleu is a restaurant located in Zarzis, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is open from 8:30am to 11pm, 7 days a week. It is located at G424+MJR Le Grand Bleu, shr` 20 mrs, Zarzis. The restaurant has a rating of 4.8 out of 5 on Google, and has received positive reviews for its food, service, and atmosphere.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe Chichkhane is a must-visit spot in Zarzis, Tunisia. This highly-rated cafe (4.7/5) boasts an impressive ambiance and serves delicious food and drinks. It is conveniently located at G424+MG7 Cafe Chichkhane, Av. 20 Mars, Zarzis 4170, making it easy for both locals and tourists to find. With its daily营业时间 of 4:00 AM to 1:00 AM, you can enjoy your favorite dishes and beverages at any time. Whether you're a coffee enthusiast, a foodie, or simply looking for a cozy place to relax, Cafe Chichkhane is the perfect destination.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5838,12 +8409,65 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe eleanor. It is a top-rated destination perfect for Cafe lovers. It's open during these hours: 07:00-23:00, but closed on . To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website or call them at 75 738 810.</t>
+          <t>Cafe eleanor is a cafe located in Zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 7am to 11pm and is closed on . It is located at coordinates (33.4992942, 11.1081284).</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where can you find Cafe Eleanor, a highly-rated destination for Cafe enthusiasts in Zarzis?</t>
+          <t>Day Plan:
+Morning: Explore **Port of Zarzis** to witness the bustling maritime activities and appreciate the vital role of fishing in the local economy.
+Mid-Morning: Indulge in the local flavors at **Restaurant Amin**, known for its delectable seafood dishes and excellent ratings.
+Midday: Visit the **musée ziane zarzis** to immerse yourself in the region's rich history and culture through its captivating exhibits.
+Afternoon: Relax and rejuvenate with a rejuvenating spa treatment at **Suites Hotel Les Seigniors**, enjoying the hotel's luxurious amenities and tranquil atmosphere.
+Evening: Experience the vibrant ambiance of **Café eleanor**, savoring its aromatic coffee and delectable treats while soaking up the local cafe culture.
+Night: Embark on a guided tour of the **Port Zarzis** marina, admiring the picturesque waterfront setting and catching a glimpse of the lively boating activities.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+DAR SHATT, rated 5.0 by 2 reviews, is a restaurant located at DAR SHATT, shT lbTwr, Zarzis 4170. Its coordinates are (33.5298945, 11.0882724), and its phone number is 24 531 667.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Café eleanor is a cafe located in zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 07:00-23:00 and is closed on []. The cafe's main category is Cafe and its other categories include ['Cafe']. The cafe's phone number is 75 738 810 and its address is G3CW+RF8 Cafe eleanor, Zarzis. The cafe's coordinates are (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5949,12 +8573,65 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Restaurant el Marsa zarzis located at Kornich sonia, Zarzis 4170. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on . To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website or call them at 54 126 124.</t>
+          <t>Restaurant el Marsa zarzis is a restaurant located in zarzis (33.5298945, 11.0882724) specialized in local cuisine. It has mostly positive reviews with an average rating of 4.0.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant offering a variety of dining options with a 4.0 rating in Zarzis?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis, witnessing the bustling fishing activities and appreciating the scenic waterfront views.
+Mid-Morning: Visit the Musee de la Memoire de la Mer et de l'Homme to delve into the region's rich maritime history and local culture.
+Midday: Indulge in exquisite seafood delicacies at Restaurant Amin, known for its exceptional culinary offerings and high ratings.
+Afternoon: Relax and rejuvenate with a delightful massage at a local spa, experiencing the tranquility and pampering it offers.
+Evening: Immerse yourself in the vibrant atmosphere at the Gare de Zarzis, interacting with locals and observing the city's movement and energy.
+Night: Conclude the day with a memorable dinner at Discover Mangos, savoring a delectable meal in a top-rated restaurant with a charming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Mangos, a top-rated restaurant in Zarzis, Tunisia. With an impressive rating of 4.8 out of 5 stars based on 8 reviews, Mangos promises a delightful dining experience. Located at G424+HJ3 Mangos, Zarzis, it offers a convenient location for you to drop by and savor what it has to offer.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe eleanor is a cafe located in Zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 7am to 11pm and is closed on . It is located at coordinates (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6056,12 +8733,65 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out lablabi sadok located at G436+G43 lablabi sadok, Av. Mohamed Ali Hammi, Zarzis. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 09:00-23:30, but closed on []. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/lablabi+sadok/data=!4m7!3m6!1s0x13aaef0ecf35b1ed:0x161bfb348675ffe3!8m2!3d33.5037742!4d11.1103069!16s%2Fg%2F11f4_2w5xy!19sChIJ7bE1zw7vqhMR4_91hjT7GxY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Lablabi Sadok is a renowned restaurant in Zarzis, Tunisia, with a rating of 4.9 and over 10 reviews. It offers traditional Tunisian cuisine with a focus on lablabi, a hearty bean and chickpea stew. The restaurant is located on Avenue Mohamed Ali Hammi and is open daily from 09:00 to 23:30. Come by to enjoy their famous lablabi and experience the vibrant atmosphere of Zarzis.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find lablabi sadok, a top-rated destination with a high rating and a wide selection of Restaurant options for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis, a bustling fishing port showcasing the region's maritime heritage.
+Mid-Morning: Try local cuisine at Lablabi Sadok, renowned for its hearty lablabi stew.
+Midday: Visit the Musé de Zarzis, offering insights into the history and culture of the region.
+Afternoon: Enjoy the sun and sea at Plage Souihel Zarzis, a charming villa with a relaxing atmosphere.
+Evening: Head to Cafe Chichkhane for a cozy ambiance, delicious food, and refreshing drinks.
+Night: Relax at the Hôtel Bellevue Zarzis, a comfortable hotel with a swimming pool and a peaceful setting.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Lablabi Sadok is a renowned restaurant in Zarzis, Tunisia, with a rating of 4.9 and over 10 reviews. It offers traditional Tunisian cuisine with a focus on lablabi, a hearty bean and chickpea stew. The restaurant is located on Avenue Mohamed Ali Hammi and is open daily from 09:00 to 23:30. Come by to enjoy their famous lablabi and experience the vibrant atmosphere of Zarzis.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe Chichkhane is a must-visit spot in Zarzis, Tunisia. This highly-rated cafe (4.7/5) boasts an impressive ambiance and serves delicious food and drinks. It is conveniently located at G424+MG7 Cafe Chichkhane, Av. 20 Mars, Zarzis 4170, making it easy for both locals and tourists to find. With its daily营业时间 of 4:00 AM to 1:00 AM, you can enjoy your favorite dishes and beverages at any time. Whether you're a coffee enthusiast, a foodie, or simply looking for a cozy place to relax, Cafe Chichkhane is the perfect destination.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6167,12 +8897,65 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated Restaurant, check out Fast Food La Palma located at G445+FHV Fast Food La Palma, Av. Mohamed V, Zarzis. This destination offers a range of categories to choose from and has a rating of 4.1, making it a must-visit spot. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 55.810848, -4.231739. For more details, visit their website at https://www.google.com/maps/place/Fast+Food+La+Palma/data=!4m7!3m6!1s0x13aaef05782cd4c3:0x97d3b61ba394b71c!8m2!3d33.5062256!4d11.1089255!16s%2Fg%2F11dfx6j0jc!19sChIJw9QseAXvqhMRHLeUoxu205c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 994 990.</t>
+          <t>Fast Food La Palma is a restaurant located in zarzis, at the coordinates (55.810848, -4.231739). This restaurant has a rating of 4.1 stars out of 5, based on 10 reviews. It is open from 10:00 AM to 01:00 AM, and is closed on . Fast Food La Palma offers a variety of dishes, and is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant in Zarzis with a 4.1 rating?</t>
+          <t>Day Plan:
+**Morning:** Explore the historic Port of Zarzis (11.11959, 33.49216).
+**Mid-Morning:** Immerse yourself in the maritime heritage at the Musée de la Mémoire de la Mer et de l'Homme (3e Arrondissement Souihel, Souihel Zarzis 4173).
+**Midday:** Delight in a traditional Tunisian lunch at Restaurant el Marsa zarzis (33.5298945, 11.0882724), known for its local cuisine.
+**Afternoon:** Enjoy an afternoon of relaxation and scenic beauty at Plage Souihel Zarzis (33.50398, 11.11215).
+**Evening:** Indulge in a memorable dinner of seafood delicacies at Restaurant Amin (48.9137136, 2.4026955), highly rated for its culinary offerings.
+**Night:** Discover the captivating cultural heritage of the region at the Musee de Zarzis, showcasing the history and traditions of the city.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant el Marsa zarzis is a restaurant located in zarzis (33.5298945, 11.0882724) specialized in local cuisine. It has mostly positive reviews with an average rating of 4.0.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe mosque Lassoued is a cafe located in Zarzis, Tunisia (33.4992942, 11.1081284). It offers a range of services including cafe and has a rating of 4.4 stars out of 7 reviews. The cafe is open from 6am to 11pm, 7 days a week.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6274,12 +9057,65 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a delicious meal, visit Restaurant Boubtane located at F3R9+67P Restaurant Boubtane, Zran, Zarzis. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at or call them at 53 027 984.</t>
+          <t>Restaurant Boubtane is a popular restaurant located in Zran, Zarzis, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open daily from 10:00 AM to 11:00 PM and is closed on Fridays. Restaurant Boubtane has received positive reviews from customers, with many praising the quality of the food and service. The restaurant is conveniently located near the beach and several other attractions.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a highly rated restaurant with a range of dining options and a perfect location?</t>
+          <t>Day Plan:
+**Morning:** Exploring the Port of Zarzis.
+**Mid-Morning:** Trying local cuisine at Restaurant El Bibane.
+**Midday:** Visiting the Musee de la Memoire de la Mer et de l'Homme.
+**Afternoon:** Enjoying sun and sand at Plage Souihel Zarzis.
+**Evening:** Relaxing with a massage at a hotel spa.
+**Night:** Experiencing cultural immersion at the Musee de Zarzis.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane, situated in Zarzis, Tunisia at the coordinates (33.5298945, 11.0882724), is a highly rated establishment with 4.3 stars out of 5 based on 153 reviews. This restaurant specializes in seafood and offers a range of dishes, including daurade, salads, pasta, and other culinary delights. Restaurant El Bibane is renowned for its exquisite cuisine, inviting ambiance, and exceptional service
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+**Café les Arcades** is a highly-rated café located in Zarzis, Tunisia. It offers a cozy and inviting atmosphere, with a menu featuring a wide variety of coffee, tea, and other beverages. The café is open 24 hours a day, making it a great spot for a quick bite or a late-night hangout.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6385,14 +9221,66 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Toutou pizza located at G33Q+86P Toutou pizza, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on [ ]. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Toutou+pizza/data=!4m7!3m6!1s0x13aaef5f1a9e1603:0x6f8b3186f507b6ce!8m2!3d33.5033263!4d11.0880667!16s%2Fg%2F11lfgq54sp!19sChIJAxaeGl_vqhMRzrYH9YYxi28?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 524 166.</t>
+          <t>**Toutou Pizza**
+Located in Zarzis, Toutou Pizza is a highly-rated restaurant with an average score of 5.0 stars. It offers a wide range of delicious options, making it a popular choice for locals and visitors alike. The restaurant is located at the coordinates 33.4992942, 11.1081284 and is open 24 hours a day. This convenient location and flexible hours make it easy to enjoy Toutou Pizza's culinary offerings anytime.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>What restaurant in Zarzis, known for its high rating, is a popular destination for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic **Lablabi Sadok** restaurant and savor its highly-rated local cuisine.
+Mid-Morning: Immerse yourself in the rich culture and history of the region by visiting the **Musé de Zarzis** museum, showcasing the heritage of Zarzis.
+Midday: Delight in a delicious lunch at **Chez keke**, known for its exquisite crepes.
+Afternoon: Escape to the picturesque **Plage Souihel Zarzis** villa and indulge in a relaxing afternoon by the beach, enjoying breathtaking views and a serene atmosphere.
+Evening: Experience traditional flavors at **O'miams zarzis**, known for its authentic sandwiches and local specialties.
+Night: Unwind and rejuvenate at **Dar Nesma**, a charming lodge offering a tranquil and comfortable stay just steps away from the sea.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Lablabi Sadok** is a popular restaurant located in Zarzis, Tunisia, at coordinates (33.4992942, 11.1081284). It has received an impressive rating of 4.9 based on 10 reviews, highlighting the quality of its offerings. With a prime location in the heart of the city, Lablabi Sadok offers a wide range of dishes, making it a sought-after dining destination.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe eleanor is a cafe located in Zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 7am to 11pm and is closed on . It is located at coordinates (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6502,15 +9390,65 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a cozy spot to relax, head over to Salon de the Le Patio located at Place des martyres. 
-This top-rated destination is a haven for tea lovers and offers a range of dining options including breakfast. 
-With a rating of 4.1, it's a must-visit spot. It opens daily from 8 AM to midnight. For more details, visit their website 
-at https://fb.watch/cGDSYVyo9Q/ or call them at 23 719 983.</t>
+          <t>The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated café with a relaxing atmosphere and a wide range of dining options in Zarzis?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis, a bustling hub for fishing operations that offers a glimpse into the local economy and maritime activities.
+Mid-Morning: Immerse yourself in the rich maritime history of Zarzis at the Musée de la Mémoire de la Mer et de l'Homme, which houses artifacts and exhibits that delve into the region's maritime traditions.
+Midday: Satisfy your taste buds with a delightful lunch at Restaurant Boubtane, known for its authentic Tunisian cuisine and international fare, conveniently located near the beach.
+Afternoon: Relax on the pristine sands of Plage Souihel Zarzis, enjoying the warm Tunisian sun and the gentle sound of waves crashing ashore.
+Evening: Indulge in a culinary adventure at Chez Keke, a popular creperie offering a delectable selection of sweet and savory crepes.
+Night: Head to Café eleanor for a cozy and charming evening, sipping on aromatic coffees or teas while soaking in the warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Boubtane is a popular restaurant located in Zran, Zarzis, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open daily from 10:00 AM to 11:00 PM and is closed on Fridays. Restaurant Boubtane has received positive reviews from customers, with many praising the quality of the food and service. The restaurant is conveniently located near the beach and several other attractions.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Café eleanor is a cafe located in zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 07:00-23:00 and is closed on []. The cafe's main category is Cafe and its other categories include ['Cafe']. The cafe's phone number is 75 738 810 and its address is G3CW+RF8 Cafe eleanor, Zarzis. The cafe's coordinates are (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6608,12 +9546,65 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Baba El Haj located at G445+2R9 Baba El Haj, C117, Zarzis. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 49.802897302342, 14.706750099876.</t>
+          <t>Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and craving some delicious Restauration rapide, where is the top-rated destination with a rating of 4.3 and why is it a must-visit spot?</t>
+          <t>Day Plan:
+Morning: Explore the Musee de Zarzis to gain insights into the region's rich history and culture.
+Mid-Morning: Visit the Port of Zarzis for a glimpse into the bustling maritime life, where you can observe fishing and boating activities.
+Midday: Try local cuisine by having lunch at Restaurant Amin, known for its delectable seafood dishes.
+Afternoon: Relax and enjoy the scenic beauty at Plage Souihel Zarzis, where you can soak up the sun and relish the serene ambiance.
+Evening: Participate in a guided tour of the Musee de la Memoire de la Mer et de l'Homme to delve deeper into the maritime heritage of the region.
+Night: For a relaxing end to the day, unwind with a soothing and rejuvenating experience at the luxurious Hotel Eden Star's spa.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+DAR SHATT, rated 5.0 by 2 reviews, is a restaurant located at DAR SHATT, shT lbTwr, Zarzis 4170. Its coordinates are (33.5298945, 11.0882724), and its phone number is 24 531 667.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Café eleanor is a cafe located in zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 07:00-23:00 and is closed on []. The cafe's main category is Cafe and its other categories include ['Cafe']. The cafe's phone number is 75 738 810 and its address is G3CW+RF8 Cafe eleanor, Zarzis. The cafe's coordinates are (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6711,12 +9702,65 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe my way zarzis located at Cafe my way zarzis, 4140, C118, Zarzis. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+my+way+zarzis/data=!4m7!3m6!1s0x13aaefc94a4a03b9:0xb3bbc9cff9e807ed!8m2!3d33.50048!4d11.105132!16s%2Fg%2F11lg3tjjcz!19sChIJuQNKSsnvqhMR7Qfo-c_Ju7M?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe my way zarzis is a restaurant located in Zarzis, Tunisia. It is open from 6:00 AM to 8:00 PM, Monday to Saturday. The restaurant has a 5.0 rating on Google and offers a relaxed atmosphere. It is perfect for a quick bite or a leisurely meal.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find Cafe my way zarzis, a highly-rated restaurant destination for food enthusiasts?</t>
+          <t>Day Plan:
+Morning: Visit the Musée de la Mémoire de la Mer et de l'Homme to delve into the maritime history of Zarzis.
+Mid-Morning: Head to Plage Souihel Zarzis for a relaxing beach experience and soak up the sun.
+Midday: Enjoy a delightful seafood lunch at Restaurant El Bibane, renowned for its exquisite cuisine and inviting ambiance.
+Afternoon: Explore the vibrant atmosphere of the Port of Zarzis, a hub for fishing activities and local economy.
+Evening: Indulge in a traditional dinner at Baba El Haj, offering a variety of fast food delicacies, including sandwiches and burgers.
+Night: Experience the enchanting surroundings of Dar Oomi, a highly-rated hotel, for a memorable evening with scenic views and local charm.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane, situated in Zarzis, Tunisia at the coordinates (33.5298945, 11.0882724), is a highly rated establishment with 4.3 stars out of 5 based on 153 reviews. This restaurant specializes in seafood and offers a range of dishes, including daurade, salads, pasta, and other culinary delights. Restaurant El Bibane is renowned for its exquisite cuisine, inviting ambiance, and exceptional service
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe Gourmand is a cafe in Zarzis, Tunisia, offering a variety of services. It is located at (18.81035, -72.98772) and is a well-rated cafe with a rating of 4.4. It has a featured image and is also known for its cheese cake, which is mentioned in 3 of its reviews.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6818,12 +9862,65 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a great dining experience, check out Pizza Latinos located at G445+2R9 Pizza Latinos, C117, Zarzis. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on . To get there, use these GPS coordinates: 55.810848, -4.231739. For more details, visit their website at https://www.google.com/maps/place/Pizza+Latinos/data=!4m7!3m6!1s0x13aaef0ed95b8a19:0xa33b4d123254667c!8m2!3d33.505043!4d11.1096098!16s%2Fg%2F119tt8r0_!19sChIJGYpb2Q7vqhMRfGZUMhJNO6M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>Pizza Latinos is a 4.2 rated restaurant located in Zarzis, Tunisia. It's open from 10:00 AM to 11:00 PM and offers a variety of dining options. The restaurant is located at coordinates (55.810848, -4.231739).</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dining spot with a rating of 4.2 in Zarzis, offering a variety of restaurant options?</t>
+          <t>Day Plan:
+Morning: Exploring Plage Souihel Zarzis
+Mid-Morning: Having lunch and trying local cuisine at Restaurant El Bibane
+Midday: Visiting the Port of Zarzis
+Afternoon: Relaxing and enjoying scenic views at Port Zarzis Marina
+Evening: Shopping for souvenirs at Place des martyres
+Night: savoring the nightlife at Cafe Eleanore</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe eleanor is a cafe located in Zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 7am to 11pm and is closed on . It is located at coordinates (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6929,12 +10026,65 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in zarzis and seeking a delectable dining experience, look no further than Le Grand Bleu, situated at G424+MJR Le Grand Bleu, shr` 20 mrs. This highly acclaimed restaurant caters to Restaurant enthusiasts, offering a tantalizing array of culinary delights. With an exceptional rating of 4.8, it's a culinary gem not to be missed. Operating hours are from 08:30-23:00, but remain closed on undisclosed days. For precise navigation, utilize the GPS coordinates: 33.4992942, 11.1081284. To make reservations or inquire further, contact them at 96 596 420.</t>
+          <t>Le Grand Bleu is a restaurant located in Zarzis, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is open from 8:30am to 11pm, 7 days a week. It is located at G424+MJR Le Grand Bleu, shr` 20 mrs, Zarzis. The restaurant has a rating of 4.8 out of 5 on Google, and has received positive reviews for its food, service, and atmosphere.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a highly acclaimed restaurant with a tantalizing menu and exceptional ratings, located near zarzis?</t>
+          <t>Day Plan:
+Morning: Explore the Musée de la Mémoire de la Mer et de l'Homme, immersing yourself in the maritime history of Zarzis.
+Mid-Morning: Visit Plage Souihel Zarzis to experience the serene ambiance and picturesque surroundings.
+Midday: Indulge in local cuisine with a delicious seafood meal at the highly-rated Restaurant Amin.
+Afternoon: Head to the Port Zarzis marina, offering stunning waterfront views and engaging boating activities for an enjoyable afternoon.
+Evening: Explore the vibrant streets of Zarzis, engaging in shopping and experiencing local markets.
+Night: Relax and pamper yourself with a rejuvenating spa treatment at one of Zarzis's well-regarded spas. End the evening with a peaceful stroll along the picturesque coast, taking in the captivating sunset views.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Toutou Pizza is an excellent restaurant in Zarzis, Tunisia, located at G33Q+86P. Open 24/7, it offers a variety of delectable dishes, including pizzas, to its customers. With a remarkable rating of 5.0 and 8 positive reviews, Toutou Pizza is a popular destination for food lovers seeking a satisfying culinary experience.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Hannibal is a cafe located in Zarzis, Tunisia. It is a popular spot for locals and tourists alike, offering a wide variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its cozy atmosphere.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7028,12 +10178,65 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out O'miams zarzis located at F4X6+RXX O'miams zarzis, Zarzis 4173. This top-rated destination is perfect for Sandwicherie lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.5459906, 11.0902961.</t>
+          <t>O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>What is the highly-rated Sandwicherie destination in Zarzis with GPS coordinates 33.5459906, 11.0902961?</t>
+          <t>Day Plan:
+**Morning:** Arrive in Zarzis and explore the Port of Zarzis (33.49216, 11.11959). Witness the bustling fishing activities and learn about the local maritime industry.
+**Mid-Morning:** Visit the Musee de la Memoire de la Mer et de l'Homme (33.5459906, 11.0902961). Delve into the rich maritime history of the region through captivating exhibits.
+**Midday:** Savor authentic local cuisine at Restaurant Amin (48.9137136, 2.4026955). Indulge in fresh seafood delicacies and experience the flavors of Zarzis.
+**Afternoon:** Spend a relaxing afternoon at Plage Souihel Zarzis (33.50398, 11.11215). Soak up the sun on the beach, take a refreshing dip in the sea, or simply enjoy the tranquil ambiance.
+**Evening:** Explore the historic Medina of Zarzis, a vibrant marketplace where you can find local crafts, souvenirs, and textiles. Capture the enchanting atmosphere of this traditional Arab quarter.
+**Night:** Head to Cafe Gourmand (1e Arrondissement) for a delightful evening. Enjoy a slice of their renowned cheesecake and unwind in the warm and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Master Chef Zarzis is a highly-rated restaurant located in Zarzis, Tunisia. With a rating of 5.0 based on 2 reviews, Master Chef Zarzis offers fine dining  in a convenient location (33.5298945, 11.0882724). Unfortunately, more detailed information, such as their menu, price range, or operating hours, is currently unavailable.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7135,12 +10338,65 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Dar Zamen located at G474+JJF. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Dar+Zamen/data=!4m7!3m6!1s0x13aaefeda2af0107:0xfbe8c2bcccc5abe6!8m2!3d33.5137405!4d11.1059402!16s%2Fg%2F11t23vzf1g!19sChIJBwGvou3vqhMR5qvFzLzC6Ps?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with excellent Restauration rapide options and a rating of 4.5 in Zarzis?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis, a bustling fishing port with a lively atmosphere.
+Mid-Morning: Visit the Musée de la Mémoire de la Mer et de l'Homme to delve into the rich maritime heritage of Zarzis.
+Midday: Savor a delectable seafood lunch at Restaurant Amin, known for its fresh and flavorful dishes.
+Afternoon: Relax and unwind at Plage Souihel Zarzis, a beautiful beach offering stunning views and a peaceful ambiance.
+Evening: Take a guided tour of Dar Zamen, a traditional Tunisian restaurant serving authentic local cuisine.
+Night: Experience the local culture at O'miams zarzis, a popular Sandwicherie offering a taste of traditional Tunisian street food.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Toutou Pizza is an excellent restaurant in Zarzis, Tunisia, located at G33Q+86P. Open 24/7, it offers a variety of delectable dishes, including pizzas, to its customers. With a remarkable rating of 5.0 and 8 positive reviews, Toutou Pizza is a popular destination for food lovers seeking a satisfying culinary experience.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe mosque Lassoued is a cafe located in Zarzis, Tunisia (33.4992942, 11.1081284). It offers a range of services including cafe and has a rating of 4.4 stars out of 7 reviews. The cafe is open from 6am to 11pm, 7 days a week.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7238,12 +10494,65 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and craving some delicious fast food, head over to Fastfood Lazhar located at F3PJ+5R6 Fastfood Lazhar. This top-rated eatery is renowned for its mouthwatering dishes and offers a variety of options to satisfy your hunger. With a remarkable rating of 5.0, it's a must-visit spot for food lovers. It's open daily from 08:04 to 21:05. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Fastfood+Lazhar/data=!4m7!3m6!1s0x13aaef18986b170d:0x432c370e40d7ef1c!8m2!3d33.4851605!4d11.0819408!16s%2Fg%2F11k4jpht61!19sChIJDRdrmBjvqhMRHO_XQA43LEM?authuser=0&amp;hl=fr&amp;rclk=1 or give them a call at (number not available).</t>
+          <t>Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated fast food restaurant with rave reviews and mouthwatering dishes in Zarzis?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis (11.11959, 33.49216) to witness the bustling fishing activities and appreciate the significance of this industry in the local economy.
+Mid-Morning: Visit the Musé de Zarzis, a museum showcasing the rich history and culture of the region. By engaging with the captivating exhibits, gain insights into the fascinating past and heritage of Zarzis.
+Midday: Indulge in a delectable culinary experience at Restaurant El Bibane, renowned for its seafood specialties. Savor the flavors of the region while enjoying the welcoming atmosphere and attentive service.
+Afternoon: Spend a leisurely afternoon at Plage Souihel Zarzis (33.50398, 11.11215), a picturesque villa offering a serene ambiance. Unwind on the beach, bask in the sunshine, or take a refreshing dip in the water.
+Evening: Witness the enchanting sunset from the scenic spot known as Port Zarzis (33.4928719, 11.1139265). The tranquil atmosphere and mesmerizing waterfront views create an unforgettable experience.
+Night: Immerse yourself in the local culture by participating in traditional events or activities at a vibrant venue in Zarzis. Engage with the warm and welcoming locals to learn about their customs and traditions firsthand.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane, situated in Zarzis, Tunisia at the coordinates (33.5298945, 11.0882724), is a highly rated establishment with 4.3 stars out of 5 based on 153 reviews. This restaurant specializes in seafood and offers a range of dishes, including daurade, salads, pasta, and other culinary delights. Restaurant El Bibane is renowned for its exquisite cuisine, inviting ambiance, and exceptional service
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7345,14 +10654,65 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Restaurant le rendez-vous zarzis located at G33Q+J7W Restaurant le rendez-vous zarzis, Plage El Batoire, Zarzis 4170. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at  or call them at 22 193 564.</t>
+          <t>Restaurant le rendez-vous zarzis is a 5-star rated restaurant located in Zarzis, Tunisia. It's situated at 33.5041224 latitude and 11.0882028 longitude, near Plage El Batoire. Unfortunately, there's no additional information available about its menu or services.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a highly-rated Restaurant destination with a rating of 5.0, located at GPS coordinates 33.5298945, 11.0882724, making it a must-visit spot for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the **Port of Zarzis** and witness the bustling maritime activities of the region.
+Mid-Morning: Indulge in local cuisine at **Restaurant Amin**, renowned for its fresh seafood and high ratings.
+Midday: Visit the **Musée de la Mémoire de la Mer et de l'Homme** to delve into the rich maritime history of Zarzis.
+Afternoon: Experience the tranquility and natural beauty of **Plage Souihel Zarzis** with a relaxing stroll or swim.
+Evening: Pamper yourself with a rejuvenating spa session at **Suites Hotel Les Seigniors**, a luxurious hotel offering a range of wellness treatments.
+Night: Enjoy a delicious dinner at **Lablabi Sadok**, a popular restaurant serving traditional Tunisian dishes amidst a warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Lablabi Sadok** is a popular restaurant located in Zarzis, Tunisia, at coordinates (33.4992942, 11.1081284). It has received an impressive rating of 4.9 based on 10 reviews, highlighting the quality of its offerings. With a prime location in the heart of the city, Lablabi Sadok offers a wide range of dishes, making it a sought-after dining destination.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe Gourmand is a cafe in Zarzis, Tunisia, offering a variety of services. It is located at (18.81035, -72.98772) and is a well-rated cafe with a rating of 4.4. It has a featured image and is also known for its cheese cake, which is mentioned in 3 of its reviews.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7450,14 +10810,65 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you find yourself in zarzis, be sure to visit DAR SHATT, located at DAR SHATT, shT lbTwr, Zarzis 4170. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, call them at 24 531 667.</t>
+          <t>DAR SHATT, rated 5.0 by 2 reviews, is a restaurant located at DAR SHATT, shT lbTwr, Zarzis 4170. Its coordinates are (33.5298945, 11.0882724), and its phone number is 24 531 667.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you find a highly acclaimed restaurant with a 5.0 rating located at DAR SHATT in Zarzis?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the bustling harbor at Port of Zarzis. Witness the vibrant fishing culture and take in the picturesque views of the Marina.
+Mid-Morning: Indulge in the local culinary delights at Restaurant Amin, renowned for its exceptional seafood dishes. Savor the flavors and ambiance as you immerse yourself in the local dining scene.
+Midday: Visit the captivating Musee de la Memoire de la Mer et de l'Homme. Discover the rich maritime history of the region through fascinating exhibits and immerse yourself in the stories of the seafaring people.
+Afternoon: Escape to the serene Plage Souihel Zarzis for a relaxing afternoon. Bask in the warm sunshine, dip your toes in the crystal-clear waters, and enjoy the tranquility of this beautiful beach.
+Evening: Experience traditional Zarzis cuisine at DAR SHATT, a highly-rated restaurant serving authentic Tunisian dishes in a charming ambiance. Engage with the locals and savor the flavors of Zarzis.
+Night: Head to the vibrant Salon de thé Le Patio for a memorable evening. Enjoy the cozy atmosphere, indulge in delectable desserts, and soak in the lively ambiance of this local gathering spot.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+DAR SHATT, rated 5.0 by 2 reviews, is a restaurant located at DAR SHATT, shT lbTwr, Zarzis 4170. Its coordinates are (33.5298945, 11.0882724), and its phone number is 24 531 667.
+Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafe Ghrab, located at (33.4992942, 11.1081284) in Zarzis, is a highly rated cafe with a 5.0 rating. It is open from 09:00-17:00 and offers a cozy atmosphere to enjoy its cafe offerings.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7551,12 +10962,65 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated Restaurant, check out Master Chef Zarzis located at Immeuble Erriyadh Route de Mednine 4170, Zarzis. This popular spot offers a range of Restaurant options to choose from and has received a 5.0 rating. For more details, visit their website at https://www.google.com/maps/place/Master+Chef+Zarzis/data=!4m7!3m6!1s0x13aaeffff154d1c3:0xafa5efb6a3c6c676!8m2!3d33.5041224!4d11.0882028!16s%2Fg%2F11mndqt1hz!19sChIJw9FU8f_vqhMRdsbGo7bvpa8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Master Chef Zarzis is a highly-rated restaurant located in Zarzis, Tunisia. With a rating of 5.0 based on 2 reviews, Master Chef Zarzis offers fine dining  in a convenient location (33.5298945, 11.0882724). Unfortunately, more detailed information, such as their menu, price range, or operating hours, is currently unavailable.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a 5.0 rating in Zarzis, located at Immeuble Erriyadh Route de Mednine 4170?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis, a bustling fishing hub with a rich maritime heritage.
+Mid-Morning: Visit the Musée de Zarzis to delve into the fascinating history and culture of the region.
+Midday: Indulge in a delicious seafood lunch at Restaurant El Bibane, known for its exceptional cuisine and panoramic views.
+Afternoon: Relax on Plage Souihel Zarzis, a serene beach offering stunning coastal views and a tranquil atmosphere.
+Evening: Embark on a guided tour of the Dar Nesma lodge, a charming retreat with breathtaking sea views.
+Night: Immerse yourself in the vibrant ambiance of Lamma food, a cozy pizzeria with delectable offerings and a delightful atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+Cafe eleanor is a cafe located in Zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 7am to 11pm and is closed on . It is located at coordinates (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7662,12 +11126,65 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated Restaurant, head to Top Chef Restaurant located at G427+2Q5 Top Chef Restaurant, Zarzis. This must-visit spot offers a range of Restaurant options and has a rating of 5.0. It's open during these hours: 11:30-21:30, but closed on dimanche. For more details, call them at 56 133 274.</t>
+          <t>Top Chef Restaurant is a restaurant located in Zarzis, Tunisia, it is specifically situated at G427+2Q5. The restaurant is open from Monday to Saturday from 11:30 am to 9:30 pm, but it is closed on Sundays. With a 5.0 rating, Top Chef Restaurant is a great place to enjoy a meal.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant (with a 5.0 rating) in Zarzis, Tunisia, that offers a variety of Restaurant options?</t>
+          <t>Day Plan:
+Morning: Start the day by visiting the **Port of Zarzis**, a bustling hub of fishing activities and a glimpse into the local maritime culture.
+Mid-Morning: Head to **Café my way zarzis** for a leisurely breakfast and a relaxed atmosphere to plan the rest of your day.
+Midday: Explore the **musée ziane zarzis**, where exhibits tell the fascinating history and culture of the region.
+Afternoon: Indulge in a delicious lunch at **Restaurant Amin**, known for its exquisite seafood dishes.
+Evening: Take a refreshing dip in the pool or stroll along the beach at **Villa Kika** for a tranquil afternoon.
+Night: Experience the vibrant atmosphere of **Café les Arcades**, a highly-rated café perfect for a casual dinner or late-night hangout.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe my way zarzis is a restaurant located in Zarzis, Tunisia. It is open from 6:00 AM to 8:00 PM, Monday to Saturday. The restaurant has a 5.0 rating on Google and offers a relaxed atmosphere. It is perfect for a quick bite or a leisurely meal.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.
+**Café les Arcades** is a highly-rated café located in Zarzis, Tunisia. It offers a cozy and inviting atmosphere, with a menu featuring a wide variety of coffee, tea, and other beverages. The café is open 24 hours a day, making it a great spot for a quick bite or a late-night hangout.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7769,12 +11286,65 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a delicious Italian dining experience, Lamma Food is the place to be! Located at G445+3P4, this cozy eatery serves up authentic pizzas that are sure to satisfy. With a rating of 5.0, this popular pizzeria is a must-visit spot. Open daily from 11:00-23:00, Lamma Food is the perfect spot to indulge in your favorite Italian comfort food. For more details, visit their website at https://www.google.com/maps/place/Lamma+food/data=!4m7!3m6!1s0x13aaefd82dc46393:0x9fc3411497c4ac9a!8m2!3d33.5051399!4d11.1093312!16s%2Fg%2F11ffj2z287!19sChIJk2PELdjvqhMRmqzElxRBw58?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you savor authentic Italian pizzas at a highly-rated pizzeria known for its cozy ambiance and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the **Port of Zarzis**, an important fishing hub with excellent reviews.
+Mid-Morning: Visit the **Musée de la Mémoire de la Mer et de l'Homme** to delve into the maritime history of the region.
+Midday: Savor the local cuisine at **Restaurant Amin**, known for its seafood dishes.
+Afternoon: Relax and enjoy the sun at **Plage Souihel Zarzis**, a villa with a peaceful ambiance.
+Evening: Indulge in the warm hospitality of **Dar Zamen**, a fast food restaurant with a 4.5-star service rating.
+Night: Experience the serene ambiance of **Salon de the Le Patio**, a charming tea room and cafe located in the heart of Zarzis.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+DAR SHATT, rated 5.0 by 2 reviews, is a restaurant located at DAR SHATT, shT lbTwr, Zarzis 4170. Its coordinates are (33.5298945, 11.0882724), and its phone number is 24 531 667.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7872,12 +11442,65 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you find yourself in zarzis and searching for a spot to catch a bus, think about exploring Gare de Zarzis situated at Gare de Zarzis. As one of the top-rated places in its category, it boasts a rating of 4.1 and is highly recommended for people who often use public transportation. To get precise directions, make use of these GPS coordinates: 33.43099, 10.96374.</t>
+          <t>The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a highly-rated spot for catching a bus, located at specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Visit the Musee de la Memoire de la Mer et de l'Homme and learn about the maritime history of the region.
+Mid-Morning: Explore Port Zarzis and enjoy the scenic waterfront while indulging in boating or recreational activities.
+Midday: Savor the authentic flavors of Zarzis by trying local cuisine at the highly-rated Restaurant le rendez-vous zarzis.
+Afternoon: Relax and rejuvenate with a calming spa treatment at Suites Hotel Les Seigniors.
+Evening: Experience the lively atmosphere at Marina Cafe while enjoying a delicious pizza and sipping on a refreshing drink amidst beautiful waterfront surroundings.
+Night: Engage in cultural immersion at Musee de Zarzis, gaining insights into the history and culture of the region.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant le rendez-vous zarzis is a 5-star rated restaurant located in Zarzis, Tunisia. It's situated at 33.5041224 latitude and 11.0882028 longitude, near Plage El Batoire. Unfortunately, there's no additional information available about its menu or services.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.
+Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.
+Marina Cafe is a well-established coffee shop located in the city of Zarzis, Tunisia. Situated on the waterfront with beautiful surroundings, the café offers a scenic view of the marina. It is a very popular local hangout spot and also among tourists, owing to its friendly staff and delicious food. The café has an extensive menu with a wide range of options, including pizzas, crêpes, and other snacks. They also have a selection of drinks, including coffee, tea, and juices. Marina Cafe is opened every day from 6 AM to 1 AM, except for Sundays.
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7971,12 +11594,65 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a reliable gas station, check out Agence technique de transport terrestre, conveniently located at F4X7+QWH Agence technique de transport terrestre, Zarzis. With a rating of 4.0, it's a top choice for those seeking quality fuel and service. The station is open during regular business hours, but it's always best to call ahead to confirm. For more details, visit their website or call them at the provided phone number.</t>
+          <t>The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where in Zarzis can you find a highly rated (4.0) and conveniently located gas station with exceptional fuel quality and service, such as Agence technique de transport terrestre?</t>
+          <t>Day Plan:
+Morning: Explore the Port of Zarzis (33.49216, 11.11959)
+Mid-Morning: Visit the Musee de la Memoire de la Mer et de l'Homme to learn about the maritime history of the region (33.5459906, 11.0902961)
+Midday: Try local cuisine at Restaurant Amin, known for its seafood dishes (48.9137136, 2.4026955)
+Afternoon: Relax and enjoy the scenic views at Plage Souihel Zarzis (33.50398, 11.11215)
+Evening: Explore the historic Salon de thé Le Patio for a charming café experience (33.5298945, 11.0882724)
+Night: Immerse yourself in the local culture by visiting the Musee de Zarzis to learn about the history and culture of the region</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant le rendez-vous zarzis is a 5-star rated restaurant located in Zarzis, Tunisia. It's situated at 33.5041224 latitude and 11.0882028 longitude, near Plage El Batoire. Unfortunately, there's no additional information available about its menu or services.
+Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.
+Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.
+The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).
+Cafee Charchara is a café located in Zarzis, Tunisia. It offers a variety of coffee drinks, as well as other beverages and snacks. The café is open from 5:30am to 1:30am, and is closed on Sundays. Cafee Charchara has a rating of 4.6 out of 5 stars on Google, and is known for its friendly staff and good coffee. It is located at the following coordinates: (33.4992942, 11.1081284).
+Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.
+Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.
+Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.
+Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.
+Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.
+**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.
+Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.
+The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.
+Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.
+Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.
+The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.
+O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.
+The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.
+The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
